--- a/작업완료포트폴리오/2. 요구사항정의서/[6기]1조_전자결재페이지_요구사항정의서_V1.0.xlsx
+++ b/작업완료포트폴리오/2. 요구사항정의서/[6기]1조_전자결재페이지_요구사항정의서_V1.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="402">
   <si>
     <t>번호</t>
   </si>
@@ -41,45 +41,45 @@
     <t>문서 이력</t>
   </si>
   <si>
+    <t>메인 페이지 영역</t>
+  </si>
+  <si>
     <t>버젼</t>
   </si>
   <si>
-    <t>메인 페이지 영역</t>
-  </si>
-  <si>
     <t>일자</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
     <t>이력 사항</t>
   </si>
   <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>사원번호(10자리 숫자)를 입력</t>
+  </si>
+  <si>
     <t>작성자</t>
   </si>
   <si>
-    <t>01</t>
+    <t>AM-LOG-01</t>
   </si>
   <si>
     <t>초안 작성</t>
   </si>
   <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>사원번호(10자리 숫자)를 입력</t>
-  </si>
-  <si>
-    <t>AM-LOG-01</t>
+    <t>02</t>
+  </si>
+  <si>
+    <t>비밀번호(8자리 이상 15자리 이하 숫자,문자,특수문자 포함)를 입력</t>
   </si>
   <si>
     <t>이진호</t>
   </si>
   <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>비밀번호(8자리 이상 15자리 이하 숫자,문자,특수문자 포함)를 입력</t>
-  </si>
-  <si>
     <t>AM-LOG-02</t>
   </si>
   <si>
@@ -143,298 +143,340 @@
     <t>09</t>
   </si>
   <si>
+    <t>비밀번호 형식 맞지 않을 시 경고메시지 출력</t>
+  </si>
+  <si>
+    <t>AM-LOG-REG-05</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>비밀번호 확인 입력</t>
+  </si>
+  <si>
+    <t>AM-LOG-REG-06</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>비밀번호와 맞지 않을 시 경고메시지 출력</t>
+  </si>
+  <si>
+    <t>AM-LOG-REG-07</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>부서의 대분류 선택</t>
+  </si>
+  <si>
+    <t>AM-LOG-REG-08</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>부서 소분류 선택</t>
+  </si>
+  <si>
+    <t>AM-LOG-REG-09</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>등록 클릭시 팝업창에 사용자이름과 함께 가입완료 메시지 출력 후 로그인페이지로 이동, 형식에 맞지 않을 시 경고 메시지 출력</t>
+  </si>
+  <si>
+    <t>AM-LOG-REG-10</t>
+  </si>
+  <si>
     <t>문서 요약</t>
   </si>
   <si>
-    <t>비밀번호 형식 맞지 않을 시 경고메시지 출력</t>
-  </si>
-  <si>
-    <t>AM-LOG-REG-05</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>비밀번호 확인 입력</t>
-  </si>
-  <si>
-    <t>AM-LOG-REG-06</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>메인</t>
+  </si>
+  <si>
+    <t>로그아웃 클릭시 로그인페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-01</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>내정보수정 클릭시 내정보수정 확인페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-02</t>
   </si>
   <si>
     <t>요약사항</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>비밀번호와 맞지 않을 시 경고메시지 출력</t>
-  </si>
-  <si>
-    <t>AM-LOG-REG-07</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>부서의 대분류 선택</t>
-  </si>
-  <si>
-    <t>AM-LOG-REG-08</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>17</t>
+  </si>
+  <si>
+    <t>메인탭 클릭시메인페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-03</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>전자결재시스템 탭 클릭시전자결재 메인페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-04</t>
   </si>
   <si>
     <t>웹 페이지를 이용하여 회사 사내 홈페이지를 만든다.</t>
   </si>
   <si>
-    <t>부서 소분류 선택</t>
-  </si>
-  <si>
-    <t>AM-LOG-REG-09</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>등록 클릭시 팝업창에 사용자이름과 함께 가입완료 메시지 출력 후 로그인페이지로 이동, 형식에 맞지 않을 시 경고 메시지 출력</t>
-  </si>
-  <si>
-    <t>AM-LOG-REG-10</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>게시판 탭 클릭시게시판 메인페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-05</t>
   </si>
   <si>
     <t>페이지는 크게 3개의 영역으로 나뉜다. 그 영역은 각각 메인영역, 결재영역, 게시판영역 으로 나뉜다.</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>메인</t>
-  </si>
-  <si>
-    <t>로그아웃 클릭시 로그인페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-01</t>
-  </si>
-  <si>
-    <t>16</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>내정보수정 탭 클릭시 내정보수정 확인페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-06</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>달력 기본값은 현재 월</t>
+  </si>
+  <si>
+    <t>AM-MAI-07</t>
   </si>
   <si>
     <t>메인영역은 새로운 사원 가입 및 메인페이지, 정보수정으로 나뉜다.</t>
   </si>
   <si>
-    <t>내정보수정 클릭시 내정보수정 확인페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-02</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>메인탭 클릭시메인페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-03</t>
+    <t>22</t>
+  </si>
+  <si>
+    <t>prev버튼 클릭 시 한달 전으로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-08</t>
   </si>
   <si>
     <t>결재영역은 크게 결재문서 생성, 보기, 삭제 등으로 나뉜다.</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>전자결재시스템 탭 클릭시전자결재 메인페이지로 이동</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>next버튼 클릭시 한달 뒤로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-09</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>달력 밑 섹션에 현재 로그인 상태 및 이번 달 일정을 출력</t>
   </si>
   <si>
     <t>게시판영역은 크게 게시판 조회, 게시글 생성, 댓글 설정, 삭제 등으로 나뉜다.</t>
   </si>
   <si>
-    <t>AM-MAI-04</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>AM-MAI-10</t>
   </si>
   <si>
     <t>메인 영역은 크게 로그인&amp;회원가입, 정보수정, 메인페이지로 나뉜다.</t>
   </si>
   <si>
-    <t>게시판 탭 클릭시게시판 메인페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-05</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>내정보수정 탭 클릭시 내정보수정 확인페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-06</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>달력 날짜 클릭시 일정 추가 일정 추가시 이번달 일정에 출력</t>
+  </si>
+  <si>
+    <t>AM-MAI-11</t>
   </si>
   <si>
     <t>결재에는 크게 2가지가 있다. 업무기안서와 휴가신청서이다.</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>달력 기본값은 현재 월</t>
-  </si>
-  <si>
-    <t>AM-MAI-07</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>전체게시판 섹션의 글씨 클릭시 게시판 메인페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-12</t>
   </si>
   <si>
     <t>게시판에는 크게 4가지 종류가 있다. 공지, 부서, 취미, 자유게시판이다.</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>prev버튼 클릭 시 한달 전으로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-08</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>next버튼 클릭시 한달 뒤로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-09</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>달력 밑 섹션에 현재 로그인 상태 및 이번 달 일정을 출력</t>
-  </si>
-  <si>
-    <t>AM-MAI-10</t>
+    <t>27</t>
+  </si>
+  <si>
+    <t>전체게시판 게시물 클릭시 해당 게시물 상세페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-13</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>결재현황 섹션 소메뉴 글씨 클릭시 결재 메인 페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-14</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>로고 클릭시 메인화면으로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-15</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>정보수정확인</t>
+  </si>
+  <si>
+    <t>현재 프로필 사진 출력</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-01</t>
   </si>
   <si>
     <t>약어 정리</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>달력 날짜 클릭시 일정 추가 일정 추가시 이번달 일정에 출력</t>
-  </si>
-  <si>
-    <t>AM-MAI-11</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>전체게시판 섹션의 글씨 클릭시 게시판 메인페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-12</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-02</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>약어</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>전체게시판 게시물 클릭시 해당 게시물 상세페이지로 이동</t>
+    <t>확인버튼 클릭시 비밀번호가 맞지 않으면 경고메시지 출력, 일치시 정보 수정페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-03</t>
   </si>
   <si>
     <t>원본 이름</t>
   </si>
   <si>
-    <t>AM-MAI-13</t>
+    <t>33</t>
+  </si>
+  <si>
+    <t>취소버튼 클릭 시 메인페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-04</t>
   </si>
   <si>
     <t>상세 내용</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>결재현황 섹션 소메뉴 글씨 클릭시 결재 메인 페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-14</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>정보수정선택</t>
+  </si>
+  <si>
+    <t>비밀번호 수정 클릭시 pwd.html로 이동</t>
   </si>
   <si>
     <t>AM</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
     <t>Attendance Management</t>
   </si>
   <si>
-    <t>로고 클릭시 메인화면으로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-15</t>
-  </si>
-  <si>
     <t>출결 관리</t>
   </si>
   <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>정보수정확인</t>
-  </si>
-  <si>
-    <t>현재 프로필 사진 출력</t>
+    <t>AM-MAI-CON-SEL-01</t>
   </si>
   <si>
     <t>LOG</t>
   </si>
   <si>
-    <t>AM-MAI-CON-01</t>
-  </si>
-  <si>
     <t>Login</t>
   </si>
   <si>
     <t>로그인 페이지</t>
   </si>
   <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-02</t>
+    <t>35</t>
+  </si>
+  <si>
+    <t>내정보 수정 클릭시 change.html로 이동</t>
   </si>
   <si>
     <t>REG</t>
   </si>
   <si>
+    <t>AM-MAI-CON-SEL-02</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>regisition</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>확인버튼 클릭시 비밀번호가 맞지 않으면 경고메시지 출력, 일치시 정보 수정페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-03</t>
+    <t>내정보수정</t>
+  </si>
+  <si>
+    <t>사번은 읽기전용 텍스트로 출력</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-UPD-01</t>
   </si>
   <si>
     <t>회원가입 페이지</t>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>취소버튼 클릭 시 메인페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-04</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>현재부서를 출력, select tag로 변경 가능</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-UPD-02</t>
   </si>
   <si>
     <t>MAI</t>
@@ -443,13 +485,13 @@
     <t>Main</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>정보수정선택</t>
-  </si>
-  <si>
-    <t>비밀번호 수정 클릭시 pwd.html로 이동</t>
+    <t>38</t>
+  </si>
+  <si>
+    <t>소속은 현재부서와 연동되어 부서 선택시 그에 맞는 소속을 출력</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-UPD-03</t>
   </si>
   <si>
     <t>메인 페이지</t>
@@ -458,10 +500,16 @@
     <t>CON</t>
   </si>
   <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>입사일은 읽기전용으로 수정 불가능하게 출력</t>
+  </si>
+  <si>
     <t>Main Connection</t>
   </si>
   <si>
-    <t>AM-MAI-CON-SEL-01</t>
+    <t>AM-MAI-CON-SEL-UPD-04</t>
   </si>
   <si>
     <t>회원확인 페이지</t>
@@ -470,97 +518,16 @@
     <t>SEL</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>내정보 수정 클릭시 change.html로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-02</t>
+    <t>40</t>
+  </si>
+  <si>
+    <t>직급은 읽기전용으로 수정 불가능하게 출력</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-UPD-05</t>
   </si>
   <si>
     <t>Selection</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>내정보수정</t>
-  </si>
-  <si>
-    <t>회원정보 수정 선택 페이지</t>
-  </si>
-  <si>
-    <t>사번은 읽기전용 텍스트로 출력</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-UPD-01</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>현재부서를 출력, select tag로 변경 가능</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-UPD-02</t>
-  </si>
-  <si>
-    <t>UPD</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>회원정보 수정 페이지</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>소속은 현재부서와 연동되어 부서 선택시 그에 맞는 소속을 출력</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-UPD-03</t>
-  </si>
-  <si>
-    <t>PWD</t>
-  </si>
-  <si>
-    <t>Password Update</t>
-  </si>
-  <si>
-    <t>비밀번호 변경 페이지</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>입사일은 읽기전용으로 수정 불가능하게 출력</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-UPD-04</t>
-  </si>
-  <si>
-    <t>Approval</t>
-  </si>
-  <si>
-    <t>전자결재 페이지</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>직급은 읽기전용으로 수정 불가능하게 출력</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-UPD-05</t>
-  </si>
-  <si>
-    <t>DRA</t>
   </si>
   <si>
     <t>41</t>
@@ -573,10 +540,7 @@
     <t>AM-MAI-CON-SEL-UPD-06</t>
   </si>
   <si>
-    <t>Draft</t>
-  </si>
-  <si>
-    <t>기안서 작성 및 수정 페이지</t>
+    <t>회원정보 수정 선택 페이지</t>
   </si>
   <si>
     <t>42</t>
@@ -586,25 +550,7 @@
 수정 가능</t>
   </si>
   <si>
-    <t>VAC</t>
-  </si>
-  <si>
-    <t>Vacation</t>
-  </si>
-  <si>
-    <t>휴가신청서 작성 및 수정 페이지</t>
-  </si>
-  <si>
     <t>AM-MAI-CON-SEL-UPD-07</t>
-  </si>
-  <si>
-    <t>WAI</t>
-  </si>
-  <si>
-    <t>Wait</t>
-  </si>
-  <si>
-    <t>결재 대기 문서함 페이지</t>
   </si>
   <si>
     <t>43</t>
@@ -617,13 +563,13 @@
     <t>AM-MAI-CON-SEL-UPD-08</t>
   </si>
   <si>
-    <t>PRO</t>
-  </si>
-  <si>
-    <t>Proceeding</t>
-  </si>
-  <si>
-    <t>결재 진행 문서함 페이지</t>
+    <t>UPD</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>회원정보 수정 페이지</t>
   </si>
   <si>
     <t>44</t>
@@ -633,9 +579,102 @@
 수정 가능</t>
   </si>
   <si>
+    <t>PWD</t>
+  </si>
+  <si>
     <t>AM-MAI-CON-SEL-UPD-09</t>
   </si>
   <si>
+    <t>Password Update</t>
+  </si>
+  <si>
+    <t>비밀번호 변경 페이지</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>첨부버튼 클릭시 자신의 프로필 사진 수정할 수 있음</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-UPD-10</t>
+  </si>
+  <si>
+    <t>전자결재 페이지</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>DRA</t>
+  </si>
+  <si>
+    <t>취소버튼 클릭시 팝업창으로 ‘취소시 수정사항은 반영되지 않습니다.’ 출력후 확인버튼 클릭시 정보수정 선택 페이지로 이동</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-UPD-11</t>
+  </si>
+  <si>
+    <t>기안서 작성 및 수정 페이지</t>
+  </si>
+  <si>
+    <t>VAC</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>확인버튼 클릭시 팝업창으로 ‘내 정보가 변경되었습니다’ 출력후 확인버튼 클릭시 정보수정 선택 페이지로 이동</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-UPD-12</t>
+  </si>
+  <si>
+    <t>휴가신청서 작성 및 수정 페이지</t>
+  </si>
+  <si>
+    <t>WAI</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>결재 대기 문서함 페이지</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>비밀번호수정</t>
+  </si>
+  <si>
+    <t>현재 비밀번호 입력</t>
+  </si>
+  <si>
+    <t>PRO</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-PWD-01</t>
+  </si>
+  <si>
+    <t>Proceeding</t>
+  </si>
+  <si>
+    <t>결재 진행 문서함 페이지</t>
+  </si>
+  <si>
     <t>COM</t>
   </si>
   <si>
@@ -645,15 +684,6 @@
     <t>결재 진행 완료함 페이지</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>첨부버튼 클릭시 자신의 프로필 사진 수정할 수 있음</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-UPD-10</t>
-  </si>
-  <si>
     <t>NOB</t>
   </si>
   <si>
@@ -663,67 +693,37 @@
     <t>게시판 메인 페이지</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>취소버튼 클릭시 팝업창으로 ‘취소시 수정사항은 반영되지 않습니다.’ 출력후 확인버튼 클릭시 정보수정 선택 페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-UPD-11</t>
+    <t>49</t>
+  </si>
+  <si>
+    <t>변경할 비밀번호 입력</t>
   </si>
   <si>
     <t>DET</t>
   </si>
   <si>
-    <t>47</t>
+    <t>AM-MAI-CON-SEL-PWD-02</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>변경할 비밀번호 확인 입력</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-PWD-03</t>
   </si>
   <si>
     <t>Detail</t>
   </si>
   <si>
-    <t>확인버튼 클릭시 팝업창으로 ‘내 정보가 변경되었습니다’ 출력후 확인버튼 클릭시 정보수정 선택 페이지로 이동</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-UPD-12</t>
+    <t>51</t>
+  </si>
+  <si>
+    <t>AM-MAI-CON-SEL-PWD-04</t>
   </si>
   <si>
     <t>게시판 상세 페이지</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>비밀번호수정</t>
-  </si>
-  <si>
-    <t>현재 비밀번호 입력</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-PWD-01</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>변경할 비밀번호 입력</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-PWD-02</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>변경할 비밀번호 확인 입력</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-PWD-03</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>AM-MAI-CON-SEL-PWD-04</t>
   </si>
   <si>
     <t>52</t>
@@ -1288,16 +1288,11 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="9.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="18.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -1312,6 +1307,11 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="18.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
@@ -1323,10 +1323,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1334,6 +1330,10 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="18.0"/>
@@ -1413,6 +1413,11 @@
       </top>
     </border>
     <border>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -1420,6 +1425,113 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
@@ -1427,31 +1539,26 @@
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
       <top style="thick">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <bottom style="thin">
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1462,11 +1569,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1478,14 +1580,6 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1494,10 +1588,34 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thick">
         <color rgb="FF000000"/>
       </right>
-      <bottom style="thick">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1505,40 +1623,12 @@
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="thick">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1550,18 +1640,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1569,94 +1651,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
     </border>
     <border>
       <top style="thin">
@@ -1779,11 +1779,11 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1815,222 +1815,225 @@
     <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="16" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="16" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="18" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="3" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="22" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="15" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="28" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="13" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="23" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="13" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="27" fillId="0" fontId="15" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="29" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="15" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="18" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="34" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2040,43 +2043,40 @@
     <xf borderId="34" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="34" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf borderId="13" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="36" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="16" fillId="4" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="16" fillId="5" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="37" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="4" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="27" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="20" fillId="5" fontId="20" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="15" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="39" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2315,15 +2315,15 @@
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="5"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -2343,16 +2343,16 @@
     </row>
     <row r="2" ht="30.0" customHeight="1">
       <c r="A2" s="9"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="13"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="12"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -2370,156 +2370,156 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="K3" s="17"/>
+      <c r="A3" s="16"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" ht="24.75" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" ht="24.75" customHeight="1">
       <c r="A5" s="9"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="13"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="30" t="s">
+      <c r="C6" s="30" t="s">
         <v>11</v>
       </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="34" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="32">
+      <c r="A7" s="36">
         <v>1.0</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="38">
         <v>43712.0</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43" t="s">
-        <v>17</v>
+      <c r="C7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="46" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" ht="45.0" customHeight="1">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="46"/>
     </row>
     <row r="9" ht="35.25" customHeight="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="55"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="57"/>
     </row>
     <row r="10" ht="34.5" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="55"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="46"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="46"/>
     </row>
     <row r="14" ht="16.5" customHeight="1">
       <c r="A14" s="59"/>
@@ -2528,73 +2528,73 @@
       <c r="K14" s="62"/>
     </row>
     <row r="15" ht="16.5" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="K15" s="17"/>
+      <c r="A15" s="16"/>
+      <c r="K15" s="18"/>
     </row>
     <row r="16" ht="16.5" customHeight="1">
       <c r="A16" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" ht="16.5" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" ht="16.5" customHeight="1">
       <c r="A18" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="30" t="s">
-        <v>11</v>
+        <v>66</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="34" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="33.0" customHeight="1">
       <c r="A19" s="66">
         <v>1.0</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43" t="s">
-        <v>17</v>
+      <c r="B19" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="46" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="33.0" customHeight="1">
@@ -2602,119 +2602,133 @@
         <v>2.0</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
+        <v>77</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="46" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" ht="33.0" customHeight="1">
       <c r="A21" s="66">
         <v>3.0</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="55"/>
+      <c r="B21" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="46" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" ht="33.0" customHeight="1">
       <c r="A22" s="67">
         <v>4.0</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="55"/>
+      <c r="B22" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="46" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" ht="33.0" customHeight="1">
       <c r="A23" s="66">
         <v>5.0</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
+      <c r="B23" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="46" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" ht="33.0" customHeight="1">
       <c r="A24" s="67">
         <v>6.0</v>
       </c>
-      <c r="B24" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
+      <c r="B24" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="46" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" ht="33.0" customHeight="1">
       <c r="A25" s="66">
         <v>7.0</v>
       </c>
-      <c r="B25" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="55"/>
+      <c r="B25" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="46" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" ht="33.0" customHeight="1">
       <c r="A26" s="67">
         <v>8.0</v>
       </c>
-      <c r="B26" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="43"/>
+      <c r="B26" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="46" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="27" ht="9.0" customHeight="1">
       <c r="A27" s="69"/>
@@ -2727,7 +2741,7 @@
       <c r="H27" s="70"/>
       <c r="I27" s="70"/>
       <c r="J27" s="70"/>
-      <c r="K27" s="71"/>
+      <c r="K27" s="46"/>
     </row>
     <row r="28" ht="9.0" customHeight="1">
       <c r="A28" s="69"/>
@@ -2744,417 +2758,417 @@
     </row>
     <row r="29" ht="33.0" customHeight="1">
       <c r="A29" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="21"/>
+        <v>118</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" ht="33.0" customHeight="1">
       <c r="A30" s="9"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="13"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="12"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="73" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B31" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="28"/>
+        <v>125</v>
+      </c>
+      <c r="C31" s="32"/>
       <c r="D31" s="74" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="28"/>
+        <v>129</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="32"/>
       <c r="K31" s="75" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" ht="16.5" customHeight="1">
       <c r="A32" s="73" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B32" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="76" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="28"/>
+        <v>134</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="73" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B33" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="28"/>
+        <v>138</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="77" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="32"/>
       <c r="K33" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="A34" s="77" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="79" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="28"/>
+      <c r="A34" s="78" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="D34" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="32"/>
       <c r="K34" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
       <c r="A35" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="79" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="28"/>
+        <v>153</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="32"/>
       <c r="K35" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="B36" s="80" t="s">
-        <v>146</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="28"/>
+        <v>159</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="82" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B37" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="C37" s="28"/>
+        <v>169</v>
+      </c>
+      <c r="C37" s="32"/>
       <c r="D37" s="84" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="28"/>
+        <v>173</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="32"/>
       <c r="K37" s="85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="82" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="28"/>
+        <v>181</v>
+      </c>
+      <c r="C38" s="32"/>
+      <c r="D38" s="80" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="32"/>
       <c r="K38" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="82" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>169</v>
-      </c>
-      <c r="C39" s="28"/>
+        <v>187</v>
+      </c>
+      <c r="C39" s="32"/>
       <c r="D39" s="84" t="s">
-        <v>170</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="28"/>
+        <v>188</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="32"/>
       <c r="K39" s="85" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="B40" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="79" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="28"/>
+        <v>190</v>
+      </c>
+      <c r="B40" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="D40" s="80" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="32"/>
       <c r="K40" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="B41" s="80" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="79" t="s">
-        <v>185</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="28"/>
+        <v>196</v>
+      </c>
+      <c r="B41" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="32"/>
+      <c r="D41" s="80" t="s">
+        <v>200</v>
+      </c>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="32"/>
       <c r="K41" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="73" t="s">
-        <v>188</v>
-      </c>
-      <c r="B42" s="80" t="s">
-        <v>189</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="79" t="s">
-        <v>190</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="28"/>
+        <v>201</v>
+      </c>
+      <c r="B42" s="81" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="32"/>
+      <c r="D42" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="32"/>
       <c r="K42" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="B43" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="79" t="s">
-        <v>194</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="28"/>
+        <v>207</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>208</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="D43" s="80" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="32"/>
       <c r="K43" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="80" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="79" t="s">
-        <v>200</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="28"/>
+        <v>213</v>
+      </c>
+      <c r="B44" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="32"/>
+      <c r="D44" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="32"/>
       <c r="K44" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="B45" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="28"/>
+        <v>217</v>
+      </c>
+      <c r="B45" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="32"/>
+      <c r="D45" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="32"/>
       <c r="K45" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="73" t="s">
-        <v>210</v>
-      </c>
-      <c r="B46" s="80" t="s">
-        <v>211</v>
-      </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="79" t="s">
-        <v>212</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="28"/>
+        <v>220</v>
+      </c>
+      <c r="B46" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="32"/>
       <c r="K46" s="75" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
-      <c r="A47" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="B47" s="87" t="s">
-        <v>218</v>
-      </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="89" t="s">
-        <v>221</v>
+      <c r="A47" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="B47" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="C47" s="89"/>
+      <c r="D47" s="90" t="s">
+        <v>233</v>
       </c>
       <c r="E47" s="91"/>
       <c r="F47" s="91"/>
       <c r="G47" s="91"/>
       <c r="H47" s="91"/>
       <c r="I47" s="91"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="92" t="s">
-        <v>17</v>
+      <c r="J47" s="89"/>
+      <c r="K47" s="93" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="60"/>
       <c r="B48" s="60"/>
-      <c r="D48" s="93"/>
+      <c r="D48" s="95"/>
       <c r="K48" s="60"/>
     </row>
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="60"/>
       <c r="B49" s="60"/>
-      <c r="D49" s="93"/>
+      <c r="D49" s="95"/>
       <c r="K49" s="60"/>
     </row>
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="60"/>
       <c r="B50" s="60"/>
-      <c r="D50" s="93"/>
+      <c r="D50" s="95"/>
       <c r="K50" s="60"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="60"/>
       <c r="B51" s="60"/>
-      <c r="D51" s="93"/>
+      <c r="D51" s="95"/>
       <c r="K51" s="60"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="60"/>
-      <c r="D52" s="93"/>
+      <c r="D52" s="95"/>
       <c r="K52" s="60"/>
     </row>
     <row r="53" ht="16.5" customHeight="1"/>
@@ -4223,13 +4237,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="7" t="s">
@@ -4246,10 +4260,10 @@
       <c r="N1" s="8"/>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -4262,3123 +4276,3123 @@
       <c r="N2" s="8"/>
     </row>
     <row r="3" ht="57.0" hidden="1" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="15"/>
     </row>
     <row r="4" ht="1.5" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
     </row>
     <row r="5" ht="38.25" customHeight="1">
-      <c r="A5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
+      <c r="A5" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
     </row>
     <row r="6" ht="35.25" customHeight="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
     </row>
     <row r="7" ht="35.25" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" ht="35.25" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="48" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
     </row>
     <row r="9" ht="35.25" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
     </row>
     <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
     </row>
     <row r="11" ht="35.25" customHeight="1">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
     </row>
     <row r="12" ht="35.25" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="43"/>
+      <c r="C12" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" ht="35.25" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="43"/>
+      <c r="C13" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="53"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" ht="35.25" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="48" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+    </row>
+    <row r="15" ht="35.25" customHeight="1">
+      <c r="A15" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-    </row>
-    <row r="15" ht="35.25" customHeight="1">
-      <c r="A15" s="44" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="48" t="s">
+      <c r="D15" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="51" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+    </row>
+    <row r="16" ht="35.25" customHeight="1">
+      <c r="A16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-    </row>
-    <row r="16" ht="35.25" customHeight="1">
-      <c r="A16" s="44" t="s">
+      <c r="B16" s="43"/>
+      <c r="C16" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="46"/>
-      <c r="C16" s="48" t="s">
+      <c r="E16" s="49"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+    </row>
+    <row r="17" ht="35.25" customHeight="1">
+      <c r="A17" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="B17" s="43"/>
+      <c r="C17" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-    </row>
-    <row r="17" ht="35.25" customHeight="1">
-      <c r="A17" s="44" t="s">
+      <c r="D17" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="48" t="s">
+      <c r="E17" s="49"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+    </row>
+    <row r="18" ht="35.25" customHeight="1">
+      <c r="A18" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-    </row>
-    <row r="18" ht="35.25" customHeight="1">
-      <c r="A18" s="44" t="s">
+      <c r="D18" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="48" t="s">
+      <c r="E18" s="49"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+    </row>
+    <row r="19" ht="35.25" customHeight="1">
+      <c r="A19" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="53"/>
+      <c r="C19" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="51" t="s">
+      <c r="D19" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-    </row>
-    <row r="19" ht="35.25" customHeight="1">
-      <c r="A19" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="48" t="s">
+      <c r="E19" s="49"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+    </row>
+    <row r="20" ht="35.25" customHeight="1">
+      <c r="A20" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="B20" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-    </row>
-    <row r="20" ht="35.25" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="C20" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="E20" s="49"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+    </row>
+    <row r="21" ht="35.25" customHeight="1">
+      <c r="A21" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D21" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="53"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-    </row>
-    <row r="21" ht="35.25" customHeight="1">
-      <c r="A21" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="48" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+    </row>
+    <row r="22" ht="35.25" customHeight="1">
+      <c r="A22" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="D22" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="53"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-    </row>
-    <row r="22" ht="35.25" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="E22" s="49"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" ht="35.25" customHeight="1">
+      <c r="A23" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="48" t="s">
+      <c r="B23" s="43"/>
+      <c r="C23" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="51" t="s">
+      <c r="D23" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="41"/>
-    </row>
-    <row r="23" ht="35.25" customHeight="1">
-      <c r="A23" s="44" t="s">
+      <c r="E23" s="49"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+    </row>
+    <row r="24" ht="35.25" customHeight="1">
+      <c r="A24" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="48" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-    </row>
-    <row r="24" ht="35.25" customHeight="1">
-      <c r="A24" s="44" t="s">
+      <c r="D24" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+    </row>
+    <row r="25" ht="35.25" customHeight="1">
+      <c r="A25" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="48" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="51" t="s">
+      <c r="E25" s="49"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+    </row>
+    <row r="26" ht="35.25" customHeight="1">
+      <c r="A26" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="53"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-    </row>
-    <row r="25" ht="35.25" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="48" t="s">
+      <c r="D26" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="53"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-    </row>
-    <row r="26" ht="35.25" customHeight="1">
-      <c r="A26" s="44" t="s">
+      <c r="E26" s="49"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+    </row>
+    <row r="27" ht="35.25" customHeight="1">
+      <c r="A27" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="48" t="s">
+      <c r="D27" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="53"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-    </row>
-    <row r="27" ht="35.25" customHeight="1">
-      <c r="A27" s="44" t="s">
+      <c r="E27" s="49"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+    </row>
+    <row r="28" ht="35.25" customHeight="1">
+      <c r="A28" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="48" t="s">
+      <c r="D28" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="51" t="s">
+      <c r="E28" s="49"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+    </row>
+    <row r="29" ht="35.25" customHeight="1">
+      <c r="A29" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="53"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-    </row>
-    <row r="28" ht="35.25" customHeight="1">
-      <c r="A28" s="44" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D28" s="51" t="s">
+      <c r="D29" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="E28" s="53"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-    </row>
-    <row r="29" ht="35.25" customHeight="1">
-      <c r="A29" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="48" t="s">
+      <c r="E29" s="49"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+    </row>
+    <row r="30" ht="35.25" customHeight="1">
+      <c r="A30" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="D29" s="51" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-    </row>
-    <row r="30" ht="35.25" customHeight="1">
-      <c r="A30" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="48" t="s">
+      <c r="D30" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="49"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+    </row>
+    <row r="31" ht="35.25" customHeight="1">
+      <c r="A31" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="51" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="E30" s="53"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-    </row>
-    <row r="31" ht="35.25" customHeight="1">
-      <c r="A31" s="44" t="s">
+      <c r="D31" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="51" t="s">
+      <c r="E31" s="49"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+    </row>
+    <row r="32" ht="35.25" customHeight="1">
+      <c r="A32" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="53"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-    </row>
-    <row r="32" ht="35.25" customHeight="1">
-      <c r="A32" s="44" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="48" t="s">
+      <c r="E32" s="49"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+    </row>
+    <row r="33" ht="35.25" customHeight="1">
+      <c r="A33" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="B33" s="43"/>
+      <c r="C33" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-    </row>
-    <row r="33" ht="35.25" customHeight="1">
-      <c r="A33" s="44" t="s">
+      <c r="E33" s="49"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+    </row>
+    <row r="34" ht="35.25" customHeight="1">
+      <c r="A34" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" s="53"/>
+      <c r="C34" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="48" t="s">
+      <c r="D34" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="E34" s="49"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+    </row>
+    <row r="35" ht="35.25" customHeight="1">
+      <c r="A35" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="53"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-    </row>
-    <row r="34" ht="35.25" customHeight="1">
-      <c r="A34" s="44" t="s">
+      <c r="B35" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="51" t="s">
+      <c r="D35" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="49"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+    </row>
+    <row r="36" ht="35.25" customHeight="1">
+      <c r="A36" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="53"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-    </row>
-    <row r="35" ht="35.25" customHeight="1">
-      <c r="A35" s="44" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" s="49"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+    </row>
+    <row r="37" ht="35.25" customHeight="1">
+      <c r="A37" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="48" t="s">
+      <c r="B37" s="43"/>
+      <c r="C37" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="53"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-    </row>
-    <row r="36" ht="35.25" customHeight="1">
-      <c r="A36" s="44" t="s">
+      <c r="D37" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="49"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+    </row>
+    <row r="38" ht="35.25" customHeight="1">
+      <c r="A38" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="53"/>
+      <c r="C38" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" s="53"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-    </row>
-    <row r="37" ht="35.25" customHeight="1">
-      <c r="A37" s="44" t="s">
+      <c r="E38" s="49"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+    </row>
+    <row r="39" ht="35.25" customHeight="1">
+      <c r="A39" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E37" s="53"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-    </row>
-    <row r="38" ht="35.25" customHeight="1">
-      <c r="A38" s="44" t="s">
+      <c r="D39" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" s="53"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-    </row>
-    <row r="39" ht="35.25" customHeight="1">
-      <c r="A39" s="44" t="s">
+      <c r="E39" s="49"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+    </row>
+    <row r="40" ht="35.25" customHeight="1">
+      <c r="A40" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="53"/>
+      <c r="C40" s="76" t="s">
         <v>141</v>
       </c>
-      <c r="B39" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C39" s="81" t="s">
+      <c r="D40" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="51" t="s">
+      <c r="E40" s="49"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+    </row>
+    <row r="41" ht="35.25" customHeight="1">
+      <c r="A41" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="53"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-    </row>
-    <row r="40" ht="35.25" customHeight="1">
-      <c r="A40" s="44" t="s">
+      <c r="D41" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="49"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+    </row>
+    <row r="42" ht="35.25" customHeight="1">
+      <c r="A42" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="56"/>
-      <c r="C40" s="81" t="s">
+      <c r="B42" s="43"/>
+      <c r="C42" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="D40" s="51" t="s">
+      <c r="D42" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="E40" s="53"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-    </row>
-    <row r="41" ht="35.25" customHeight="1">
-      <c r="A41" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="58" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+    </row>
+    <row r="43" ht="35.25" customHeight="1">
+      <c r="A43" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="48" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="D41" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="E41" s="53"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-    </row>
-    <row r="42" ht="35.25" customHeight="1">
-      <c r="A42" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="46"/>
-      <c r="C42" s="48" t="s">
+      <c r="E43" s="49"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+    </row>
+    <row r="44" ht="35.25" customHeight="1">
+      <c r="A44" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="D42" s="51" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E42" s="53"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-    </row>
-    <row r="43" ht="35.25" customHeight="1">
-      <c r="A43" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="48" t="s">
+      <c r="D44" s="47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+    </row>
+    <row r="45" ht="35.25" customHeight="1">
+      <c r="A45" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="D43" s="51" t="s">
+      <c r="B45" s="43"/>
+      <c r="C45" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="53"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-    </row>
-    <row r="44" ht="35.25" customHeight="1">
-      <c r="A44" s="44" t="s">
+      <c r="D45" s="47" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+    </row>
+    <row r="46" ht="35.25" customHeight="1">
+      <c r="A46" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="B44" s="46"/>
-      <c r="C44" s="48" t="s">
+      <c r="D46" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D44" s="51" t="s">
+      <c r="E46" s="49"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+    </row>
+    <row r="47" ht="35.25" customHeight="1">
+      <c r="A47" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="53"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-    </row>
-    <row r="45" ht="35.25" customHeight="1">
-      <c r="A45" s="44" t="s">
+      <c r="B47" s="43"/>
+      <c r="C47" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E47" s="49"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+    </row>
+    <row r="48" ht="35.25" customHeight="1">
+      <c r="A48" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="46"/>
-      <c r="C45" s="48" t="s">
+      <c r="B48" s="43"/>
+      <c r="C48" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="51" t="s">
+      <c r="D48" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="E45" s="53"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-    </row>
-    <row r="46" ht="35.25" customHeight="1">
-      <c r="A46" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="51" t="s">
+      <c r="E48" s="49"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+    </row>
+    <row r="49" ht="35.25" customHeight="1">
+      <c r="A49" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-    </row>
-    <row r="47" ht="35.25" customHeight="1">
-      <c r="A47" s="44" t="s">
+      <c r="B49" s="43"/>
+      <c r="C49" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="48" t="s">
-        <v>187</v>
-      </c>
-      <c r="D47" s="51" t="s">
+      <c r="E49" s="49"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+    </row>
+    <row r="50" ht="35.25" customHeight="1">
+      <c r="A50" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-    </row>
-    <row r="48" ht="35.25" customHeight="1">
-      <c r="A48" s="44" t="s">
+      <c r="D50" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="49"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+    </row>
+    <row r="51" ht="35.25" customHeight="1">
+      <c r="A51" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="51" t="s">
+      <c r="B51" s="43"/>
+      <c r="C51" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-    </row>
-    <row r="49" ht="35.25" customHeight="1">
-      <c r="A49" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="B49" s="46"/>
-      <c r="C49" s="48" t="s">
+      <c r="D51" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E51" s="49"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+    </row>
+    <row r="52" ht="35.25" customHeight="1">
+      <c r="A52" s="41" t="s">
         <v>202</v>
       </c>
-      <c r="D49" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-    </row>
-    <row r="50" ht="35.25" customHeight="1">
-      <c r="A50" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="48" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="53"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-    </row>
-    <row r="51" ht="35.25" customHeight="1">
-      <c r="A51" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="48" t="s">
+      <c r="B52" s="53"/>
+      <c r="C52" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="E52" s="49"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+    </row>
+    <row r="53" ht="35.25" customHeight="1">
+      <c r="A53" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" s="76" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="E51" s="53"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-    </row>
-    <row r="52" ht="35.25" customHeight="1">
-      <c r="A52" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52" s="53"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-    </row>
-    <row r="53" ht="35.25" customHeight="1">
-      <c r="A53" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="B53" s="58" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+    </row>
+    <row r="54" ht="35.25" customHeight="1">
+      <c r="A54" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="C53" s="81" t="s">
+      <c r="B54" s="43"/>
+      <c r="C54" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="D53" s="90" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-    </row>
-    <row r="54" ht="35.25" customHeight="1">
-      <c r="A54" s="44" t="s">
+      <c r="D54" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="48" t="s">
+      <c r="E54" s="49"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+    </row>
+    <row r="55" ht="35.25" customHeight="1">
+      <c r="A55" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="D54" s="90" t="s">
+      <c r="B55" s="43"/>
+      <c r="C55" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="E54" s="53"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="41"/>
-      <c r="N54" s="41"/>
-    </row>
-    <row r="55" ht="35.25" customHeight="1">
-      <c r="A55" s="44" t="s">
+      <c r="D55" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D55" s="90" t="s">
+      <c r="E55" s="49"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+    </row>
+    <row r="56" ht="35.25" customHeight="1">
+      <c r="A56" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="E55" s="53"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
-      <c r="N55" s="41"/>
-    </row>
-    <row r="56" ht="35.25" customHeight="1">
-      <c r="A56" s="44" t="s">
+      <c r="B56" s="43"/>
+      <c r="C56" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="B56" s="46"/>
-      <c r="C56" s="48" t="s">
-        <v>214</v>
-      </c>
-      <c r="D56" s="90" t="s">
-        <v>233</v>
-      </c>
-      <c r="E56" s="53"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="41"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
-      <c r="N56" s="41"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
     </row>
     <row r="57" ht="35.25" customHeight="1">
-      <c r="A57" s="44" t="s">
+      <c r="A57" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="48" t="s">
+      <c r="B57" s="53"/>
+      <c r="C57" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="D57" s="90" t="s">
+      <c r="D57" s="86" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="53"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="41"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="41"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
-      <c r="N57" s="41"/>
+      <c r="E57" s="49"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
     </row>
     <row r="58" ht="11.25" customHeight="1">
-      <c r="A58" s="94"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="95"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="41"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="41"/>
-      <c r="N58" s="41"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
     </row>
     <row r="59" ht="38.25" customHeight="1">
       <c r="A59" s="96" t="s">
         <v>237</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="41"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="41"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
-      <c r="N59" s="41"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
     </row>
     <row r="60" ht="33.0" customHeight="1">
-      <c r="A60" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="36" t="s">
+      <c r="A60" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="D60" s="38" t="s">
+      <c r="D60" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="E60" s="39"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="41"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="41"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="41"/>
-      <c r="N60" s="41"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
     </row>
     <row r="61" ht="33.0" customHeight="1">
-      <c r="A61" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="48" t="s">
+      <c r="A61" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="45" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="53"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="41"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="41"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="41"/>
-      <c r="N61" s="41"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
     </row>
     <row r="62" ht="33.0" customHeight="1">
-      <c r="A62" s="44" t="s">
+      <c r="A62" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="48" t="s">
+      <c r="B62" s="43"/>
+      <c r="C62" s="45" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="53"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="41"/>
-      <c r="N62" s="41"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="39"/>
     </row>
     <row r="63" ht="33.0" customHeight="1">
-      <c r="A63" s="44" t="s">
+      <c r="A63" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="46"/>
-      <c r="C63" s="48" t="s">
+      <c r="B63" s="43"/>
+      <c r="C63" s="45" t="s">
         <v>245</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="E63" s="53"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
+      <c r="E63" s="49"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="39"/>
     </row>
     <row r="64" ht="33.0" customHeight="1">
-      <c r="A64" s="44" t="s">
+      <c r="A64" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="46"/>
-      <c r="C64" s="48" t="s">
+      <c r="B64" s="43"/>
+      <c r="C64" s="45" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="47" t="s">
         <v>248</v>
       </c>
-      <c r="E64" s="53"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
     </row>
     <row r="65" ht="33.0" customHeight="1">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="48" t="s">
+      <c r="B65" s="43"/>
+      <c r="C65" s="45" t="s">
         <v>249</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="E65" s="53"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
     </row>
     <row r="66" ht="33.0" customHeight="1">
-      <c r="A66" s="44" t="s">
+      <c r="A66" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="46"/>
-      <c r="C66" s="48" t="s">
+      <c r="B66" s="43"/>
+      <c r="C66" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="47" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="53"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="39"/>
     </row>
     <row r="67" ht="33.0" customHeight="1">
-      <c r="A67" s="44" t="s">
+      <c r="A67" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="46"/>
-      <c r="C67" s="48" t="s">
+      <c r="B67" s="43"/>
+      <c r="C67" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="47" t="s">
         <v>254</v>
       </c>
-      <c r="E67" s="53"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
+      <c r="K67" s="39"/>
+      <c r="L67" s="39"/>
+      <c r="M67" s="39"/>
+      <c r="N67" s="39"/>
     </row>
     <row r="68" ht="33.0" customHeight="1">
-      <c r="A68" s="44" t="s">
+      <c r="A68" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="46"/>
-      <c r="C68" s="48" t="s">
+      <c r="B68" s="43"/>
+      <c r="C68" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="47" t="s">
         <v>256</v>
       </c>
-      <c r="E68" s="53"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
+      <c r="E68" s="49"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
+      <c r="K68" s="39"/>
+      <c r="L68" s="39"/>
+      <c r="M68" s="39"/>
+      <c r="N68" s="39"/>
     </row>
     <row r="69" ht="33.0" customHeight="1">
-      <c r="A69" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B69" s="46"/>
-      <c r="C69" s="48" t="s">
+      <c r="A69" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="43"/>
+      <c r="C69" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="47" t="s">
         <v>258</v>
       </c>
-      <c r="E69" s="53"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="41"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="41"/>
-      <c r="N69" s="41"/>
+      <c r="E69" s="49"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="39"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="39"/>
     </row>
     <row r="70" ht="33.0" customHeight="1">
-      <c r="A70" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="46"/>
-      <c r="C70" s="48" t="s">
+      <c r="A70" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="E70" s="53"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="41"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
+      <c r="M70" s="39"/>
+      <c r="N70" s="39"/>
     </row>
     <row r="71" ht="33.0" customHeight="1">
-      <c r="A71" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B71" s="46"/>
-      <c r="C71" s="48" t="s">
+      <c r="A71" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="E71" s="53"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="41"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="41"/>
-      <c r="N71" s="41"/>
+      <c r="E71" s="49"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
+      <c r="K71" s="39"/>
+      <c r="L71" s="39"/>
+      <c r="M71" s="39"/>
+      <c r="N71" s="39"/>
     </row>
     <row r="72" ht="33.0" customHeight="1">
-      <c r="A72" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="56"/>
-      <c r="C72" s="48" t="s">
+      <c r="A72" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" s="53"/>
+      <c r="C72" s="45" t="s">
         <v>263</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="47" t="s">
         <v>264</v>
       </c>
-      <c r="E72" s="53"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="41"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="41"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="41"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
-      <c r="N72" s="41"/>
+      <c r="E72" s="49"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
+      <c r="K72" s="39"/>
+      <c r="L72" s="39"/>
+      <c r="M72" s="39"/>
+      <c r="N72" s="39"/>
     </row>
     <row r="73" ht="33.0" customHeight="1">
-      <c r="A73" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B73" s="58" t="s">
+      <c r="A73" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" s="56" t="s">
         <v>265</v>
       </c>
-      <c r="C73" s="48" t="s">
+      <c r="C73" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="51" t="s">
+      <c r="D73" s="47" t="s">
         <v>267</v>
       </c>
-      <c r="E73" s="53"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
-      <c r="L73" s="41"/>
-      <c r="M73" s="41"/>
-      <c r="N73" s="41"/>
+      <c r="E73" s="49"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
+      <c r="K73" s="39"/>
+      <c r="L73" s="39"/>
+      <c r="M73" s="39"/>
+      <c r="N73" s="39"/>
     </row>
     <row r="74" ht="33.0" customHeight="1">
-      <c r="A74" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="46"/>
-      <c r="C74" s="48" t="s">
+      <c r="A74" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="43"/>
+      <c r="C74" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="51" t="s">
+      <c r="D74" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="E74" s="53"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="41"/>
-      <c r="K74" s="41"/>
-      <c r="L74" s="41"/>
-      <c r="M74" s="41"/>
-      <c r="N74" s="41"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
+      <c r="K74" s="39"/>
+      <c r="L74" s="39"/>
+      <c r="M74" s="39"/>
+      <c r="N74" s="39"/>
     </row>
     <row r="75" ht="33.0" customHeight="1">
-      <c r="A75" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="48" t="s">
+      <c r="A75" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="43"/>
+      <c r="C75" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="51" t="s">
+      <c r="D75" s="47" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="53"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
-      <c r="J75" s="41"/>
-      <c r="K75" s="41"/>
-      <c r="L75" s="41"/>
-      <c r="M75" s="41"/>
-      <c r="N75" s="41"/>
+      <c r="E75" s="49"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
+      <c r="K75" s="39"/>
+      <c r="L75" s="39"/>
+      <c r="M75" s="39"/>
+      <c r="N75" s="39"/>
     </row>
     <row r="76" ht="33.0" customHeight="1">
-      <c r="A76" s="44" t="s">
+      <c r="A76" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="D76" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" s="49"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="39"/>
+      <c r="L76" s="39"/>
+      <c r="M76" s="39"/>
+      <c r="N76" s="39"/>
+    </row>
+    <row r="77" ht="33.0" customHeight="1">
+      <c r="A77" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="46"/>
-      <c r="C76" s="48" t="s">
+      <c r="B77" s="43"/>
+      <c r="C77" s="45" t="s">
+        <v>274</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>275</v>
+      </c>
+      <c r="E77" s="49"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
+      <c r="K77" s="39"/>
+      <c r="L77" s="39"/>
+      <c r="M77" s="39"/>
+      <c r="N77" s="39"/>
+    </row>
+    <row r="78" ht="33.0" customHeight="1">
+      <c r="A78" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" s="43"/>
+      <c r="C78" s="45" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>277</v>
+      </c>
+      <c r="E78" s="49"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
+      <c r="K78" s="39"/>
+      <c r="L78" s="39"/>
+      <c r="M78" s="39"/>
+      <c r="N78" s="39"/>
+    </row>
+    <row r="79" ht="33.0" customHeight="1">
+      <c r="A79" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="45" t="s">
+        <v>278</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>279</v>
+      </c>
+      <c r="E79" s="49"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
+      <c r="K79" s="39"/>
+      <c r="L79" s="39"/>
+      <c r="M79" s="39"/>
+      <c r="N79" s="39"/>
+    </row>
+    <row r="80" ht="33.0" customHeight="1">
+      <c r="A80" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>281</v>
+      </c>
+      <c r="E80" s="49"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
+      <c r="K80" s="39"/>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+    </row>
+    <row r="81" ht="33.0" customHeight="1">
+      <c r="A81" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="45" t="s">
+        <v>282</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="E81" s="49"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
+      <c r="K81" s="39"/>
+      <c r="L81" s="39"/>
+      <c r="M81" s="39"/>
+      <c r="N81" s="39"/>
+    </row>
+    <row r="82" ht="33.0" customHeight="1">
+      <c r="A82" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="45" t="s">
+        <v>284</v>
+      </c>
+      <c r="D82" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="E82" s="49"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
+      <c r="K82" s="39"/>
+      <c r="L82" s="39"/>
+      <c r="M82" s="39"/>
+      <c r="N82" s="39"/>
+    </row>
+    <row r="83" ht="33.0" customHeight="1">
+      <c r="A83" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" s="53"/>
+      <c r="C83" s="45" t="s">
+        <v>286</v>
+      </c>
+      <c r="D83" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="E83" s="49"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
+      <c r="K83" s="39"/>
+      <c r="L83" s="39"/>
+      <c r="M83" s="39"/>
+      <c r="N83" s="39"/>
+    </row>
+    <row r="84" ht="33.0" customHeight="1">
+      <c r="A84" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>288</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="E84" s="49"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
+      <c r="K84" s="39"/>
+      <c r="L84" s="39"/>
+      <c r="M84" s="39"/>
+      <c r="N84" s="39"/>
+    </row>
+    <row r="85" ht="33.0" customHeight="1">
+      <c r="A85" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="43"/>
+      <c r="C85" s="45" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="E85" s="49"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
+      <c r="K85" s="39"/>
+      <c r="L85" s="39"/>
+      <c r="M85" s="39"/>
+      <c r="N85" s="39"/>
+    </row>
+    <row r="86" ht="33.0" customHeight="1">
+      <c r="A86" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86" s="43"/>
+      <c r="C86" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="D86" s="47" t="s">
+        <v>291</v>
+      </c>
+      <c r="E86" s="49"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
+      <c r="K86" s="39"/>
+      <c r="L86" s="39"/>
+      <c r="M86" s="39"/>
+      <c r="N86" s="39"/>
+    </row>
+    <row r="87" ht="33.0" customHeight="1">
+      <c r="A87" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="43"/>
+      <c r="C87" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" s="53"/>
-      <c r="F76" s="41"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-      <c r="J76" s="41"/>
-      <c r="K76" s="41"/>
-      <c r="L76" s="41"/>
-      <c r="M76" s="41"/>
-      <c r="N76" s="41"/>
-    </row>
-    <row r="77" ht="33.0" customHeight="1">
-      <c r="A77" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="46"/>
-      <c r="C77" s="48" t="s">
-        <v>274</v>
-      </c>
-      <c r="D77" s="51" t="s">
-        <v>275</v>
-      </c>
-      <c r="E77" s="53"/>
-      <c r="F77" s="41"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="41"/>
-      <c r="I77" s="41"/>
-      <c r="J77" s="41"/>
-      <c r="K77" s="41"/>
-      <c r="L77" s="41"/>
-      <c r="M77" s="41"/>
-      <c r="N77" s="41"/>
-    </row>
-    <row r="78" ht="33.0" customHeight="1">
-      <c r="A78" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="46"/>
-      <c r="C78" s="48" t="s">
-        <v>276</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>277</v>
-      </c>
-      <c r="E78" s="53"/>
-      <c r="F78" s="41"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="41"/>
-      <c r="I78" s="41"/>
-      <c r="J78" s="41"/>
-      <c r="K78" s="41"/>
-      <c r="L78" s="41"/>
-      <c r="M78" s="41"/>
-      <c r="N78" s="41"/>
-    </row>
-    <row r="79" ht="33.0" customHeight="1">
-      <c r="A79" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="46"/>
-      <c r="C79" s="48" t="s">
+      <c r="D87" s="47" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" s="49"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
+      <c r="K87" s="39"/>
+      <c r="L87" s="39"/>
+      <c r="M87" s="39"/>
+      <c r="N87" s="39"/>
+    </row>
+    <row r="88" ht="33.0" customHeight="1">
+      <c r="A88" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="45" t="s">
+        <v>293</v>
+      </c>
+      <c r="D88" s="47" t="s">
+        <v>294</v>
+      </c>
+      <c r="E88" s="49"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
+      <c r="K88" s="39"/>
+      <c r="L88" s="39"/>
+      <c r="M88" s="39"/>
+      <c r="N88" s="39"/>
+    </row>
+    <row r="89" ht="33.0" customHeight="1">
+      <c r="A89" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B89" s="43"/>
+      <c r="C89" s="45" t="s">
+        <v>295</v>
+      </c>
+      <c r="D89" s="47" t="s">
+        <v>296</v>
+      </c>
+      <c r="E89" s="49"/>
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="39"/>
+      <c r="N89" s="39"/>
+    </row>
+    <row r="90" ht="33.0" customHeight="1">
+      <c r="A90" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="43"/>
+      <c r="C90" s="45" t="s">
+        <v>297</v>
+      </c>
+      <c r="D90" s="47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E90" s="49"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
+      <c r="K90" s="39"/>
+      <c r="L90" s="39"/>
+      <c r="M90" s="39"/>
+      <c r="N90" s="39"/>
+    </row>
+    <row r="91" ht="33.0" customHeight="1">
+      <c r="A91" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="43"/>
+      <c r="C91" s="45" t="s">
+        <v>299</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>300</v>
+      </c>
+      <c r="E91" s="49"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
+      <c r="K91" s="39"/>
+      <c r="L91" s="39"/>
+      <c r="M91" s="39"/>
+      <c r="N91" s="39"/>
+    </row>
+    <row r="92" ht="33.0" customHeight="1">
+      <c r="A92" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" s="43"/>
+      <c r="C92" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="D92" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="E92" s="49"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
+      <c r="K92" s="39"/>
+      <c r="L92" s="39"/>
+      <c r="M92" s="39"/>
+      <c r="N92" s="39"/>
+    </row>
+    <row r="93" ht="33.0" customHeight="1">
+      <c r="A93" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="43"/>
+      <c r="C93" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>304</v>
+      </c>
+      <c r="E93" s="49"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
+      <c r="K93" s="39"/>
+      <c r="L93" s="39"/>
+      <c r="M93" s="39"/>
+      <c r="N93" s="39"/>
+    </row>
+    <row r="94" ht="33.0" customHeight="1">
+      <c r="A94" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="B94" s="43"/>
+      <c r="C94" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="D79" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="E79" s="53"/>
-      <c r="F79" s="41"/>
-      <c r="G79" s="41"/>
-      <c r="H79" s="41"/>
-      <c r="I79" s="41"/>
-      <c r="J79" s="41"/>
-      <c r="K79" s="41"/>
-      <c r="L79" s="41"/>
-      <c r="M79" s="41"/>
-      <c r="N79" s="41"/>
-    </row>
-    <row r="80" ht="33.0" customHeight="1">
-      <c r="A80" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B80" s="46"/>
-      <c r="C80" s="48" t="s">
+      <c r="D94" s="47" t="s">
+        <v>305</v>
+      </c>
+      <c r="E94" s="49"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
+      <c r="N94" s="39"/>
+    </row>
+    <row r="95" ht="33.0" customHeight="1">
+      <c r="A95" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B95" s="43"/>
+      <c r="C95" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="D80" s="51" t="s">
-        <v>281</v>
-      </c>
-      <c r="E80" s="53"/>
-      <c r="F80" s="41"/>
-      <c r="G80" s="41"/>
-      <c r="H80" s="41"/>
-      <c r="I80" s="41"/>
-      <c r="J80" s="41"/>
-      <c r="K80" s="41"/>
-      <c r="L80" s="41"/>
-      <c r="M80" s="41"/>
-      <c r="N80" s="41"/>
-    </row>
-    <row r="81" ht="33.0" customHeight="1">
-      <c r="A81" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B81" s="46"/>
-      <c r="C81" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>283</v>
-      </c>
-      <c r="E81" s="53"/>
-      <c r="F81" s="41"/>
-      <c r="G81" s="41"/>
-      <c r="H81" s="41"/>
-      <c r="I81" s="41"/>
-      <c r="J81" s="41"/>
-      <c r="K81" s="41"/>
-      <c r="L81" s="41"/>
-      <c r="M81" s="41"/>
-      <c r="N81" s="41"/>
-    </row>
-    <row r="82" ht="33.0" customHeight="1">
-      <c r="A82" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="48" t="s">
+      <c r="D95" s="47" t="s">
+        <v>306</v>
+      </c>
+      <c r="E95" s="49"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="39"/>
+    </row>
+    <row r="96" ht="33.0" customHeight="1">
+      <c r="A96" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="B96" s="43"/>
+      <c r="C96" s="45" t="s">
+        <v>307</v>
+      </c>
+      <c r="D96" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="E96" s="49"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
+      <c r="K96" s="39"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+    </row>
+    <row r="97" ht="33.0" customHeight="1">
+      <c r="A97" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="B97" s="43"/>
+      <c r="C97" s="45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D97" s="47" t="s">
+        <v>310</v>
+      </c>
+      <c r="E97" s="49"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+    </row>
+    <row r="98" ht="33.0" customHeight="1">
+      <c r="A98" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" s="43"/>
+      <c r="C98" s="45" t="s">
         <v>284</v>
       </c>
-      <c r="D82" s="51" t="s">
-        <v>285</v>
-      </c>
-      <c r="E82" s="53"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="41"/>
-      <c r="K82" s="41"/>
-      <c r="L82" s="41"/>
-      <c r="M82" s="41"/>
-      <c r="N82" s="41"/>
-    </row>
-    <row r="83" ht="33.0" customHeight="1">
-      <c r="A83" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="48" t="s">
-        <v>286</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>287</v>
-      </c>
-      <c r="E83" s="53"/>
-      <c r="F83" s="41"/>
-      <c r="G83" s="41"/>
-      <c r="H83" s="41"/>
-      <c r="I83" s="41"/>
-      <c r="J83" s="41"/>
-      <c r="K83" s="41"/>
-      <c r="L83" s="41"/>
-      <c r="M83" s="41"/>
-      <c r="N83" s="41"/>
-    </row>
-    <row r="84" ht="33.0" customHeight="1">
-      <c r="A84" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="58" t="s">
-        <v>288</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>289</v>
-      </c>
-      <c r="E84" s="53"/>
-      <c r="F84" s="41"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
-      <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
-      <c r="N84" s="41"/>
-    </row>
-    <row r="85" ht="33.0" customHeight="1">
-      <c r="A85" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B85" s="46"/>
-      <c r="C85" s="48" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="51" t="s">
-        <v>290</v>
-      </c>
-      <c r="E85" s="53"/>
-      <c r="F85" s="41"/>
-      <c r="G85" s="41"/>
-      <c r="H85" s="41"/>
-      <c r="I85" s="41"/>
-      <c r="J85" s="41"/>
-      <c r="K85" s="41"/>
-      <c r="L85" s="41"/>
-      <c r="M85" s="41"/>
-      <c r="N85" s="41"/>
-    </row>
-    <row r="86" ht="33.0" customHeight="1">
-      <c r="A86" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B86" s="46"/>
-      <c r="C86" s="48" t="s">
-        <v>270</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="E86" s="53"/>
-      <c r="F86" s="41"/>
-      <c r="G86" s="41"/>
-      <c r="H86" s="41"/>
-      <c r="I86" s="41"/>
-      <c r="J86" s="41"/>
-      <c r="K86" s="41"/>
-      <c r="L86" s="41"/>
-      <c r="M86" s="41"/>
-      <c r="N86" s="41"/>
-    </row>
-    <row r="87" ht="33.0" customHeight="1">
-      <c r="A87" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B87" s="46"/>
-      <c r="C87" s="48" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="E87" s="53"/>
-      <c r="F87" s="41"/>
-      <c r="G87" s="41"/>
-      <c r="H87" s="41"/>
-      <c r="I87" s="41"/>
-      <c r="J87" s="41"/>
-      <c r="K87" s="41"/>
-      <c r="L87" s="41"/>
-      <c r="M87" s="41"/>
-      <c r="N87" s="41"/>
-    </row>
-    <row r="88" ht="33.0" customHeight="1">
-      <c r="A88" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="46"/>
-      <c r="C88" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>294</v>
-      </c>
-      <c r="E88" s="53"/>
-      <c r="F88" s="41"/>
-      <c r="G88" s="41"/>
-      <c r="H88" s="41"/>
-      <c r="I88" s="41"/>
-      <c r="J88" s="41"/>
-      <c r="K88" s="41"/>
-      <c r="L88" s="41"/>
-      <c r="M88" s="41"/>
-      <c r="N88" s="41"/>
-    </row>
-    <row r="89" ht="33.0" customHeight="1">
-      <c r="A89" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89" s="46"/>
-      <c r="C89" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="D89" s="51" t="s">
-        <v>296</v>
-      </c>
-      <c r="E89" s="53"/>
-      <c r="F89" s="41"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
-      <c r="L89" s="41"/>
-      <c r="M89" s="41"/>
-      <c r="N89" s="41"/>
-    </row>
-    <row r="90" ht="33.0" customHeight="1">
-      <c r="A90" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B90" s="46"/>
-      <c r="C90" s="48" t="s">
-        <v>297</v>
-      </c>
-      <c r="D90" s="51" t="s">
-        <v>298</v>
-      </c>
-      <c r="E90" s="53"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="41"/>
-      <c r="K90" s="41"/>
-      <c r="L90" s="41"/>
-      <c r="M90" s="41"/>
-      <c r="N90" s="41"/>
-    </row>
-    <row r="91" ht="33.0" customHeight="1">
-      <c r="A91" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="46"/>
-      <c r="C91" s="48" t="s">
-        <v>299</v>
-      </c>
-      <c r="D91" s="51" t="s">
-        <v>300</v>
-      </c>
-      <c r="E91" s="53"/>
-      <c r="F91" s="41"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
-      <c r="L91" s="41"/>
-      <c r="M91" s="41"/>
-      <c r="N91" s="41"/>
-    </row>
-    <row r="92" ht="33.0" customHeight="1">
-      <c r="A92" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="B92" s="46"/>
-      <c r="C92" s="48" t="s">
-        <v>301</v>
-      </c>
-      <c r="D92" s="51" t="s">
-        <v>302</v>
-      </c>
-      <c r="E92" s="53"/>
-      <c r="F92" s="41"/>
-      <c r="G92" s="41"/>
-      <c r="H92" s="41"/>
-      <c r="I92" s="41"/>
-      <c r="J92" s="41"/>
-      <c r="K92" s="41"/>
-      <c r="L92" s="41"/>
-      <c r="M92" s="41"/>
-      <c r="N92" s="41"/>
-    </row>
-    <row r="93" ht="33.0" customHeight="1">
-      <c r="A93" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="B93" s="46"/>
-      <c r="C93" s="48" t="s">
-        <v>303</v>
-      </c>
-      <c r="D93" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="E93" s="53"/>
-      <c r="F93" s="41"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
-      <c r="L93" s="41"/>
-      <c r="M93" s="41"/>
-      <c r="N93" s="41"/>
-    </row>
-    <row r="94" ht="33.0" customHeight="1">
-      <c r="A94" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="B94" s="46"/>
-      <c r="C94" s="48" t="s">
-        <v>278</v>
-      </c>
-      <c r="D94" s="51" t="s">
-        <v>305</v>
-      </c>
-      <c r="E94" s="53"/>
-      <c r="F94" s="41"/>
-      <c r="G94" s="41"/>
-      <c r="H94" s="41"/>
-      <c r="I94" s="41"/>
-      <c r="J94" s="41"/>
-      <c r="K94" s="41"/>
-      <c r="L94" s="41"/>
-      <c r="M94" s="41"/>
-      <c r="N94" s="41"/>
-    </row>
-    <row r="95" ht="33.0" customHeight="1">
-      <c r="A95" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B95" s="46"/>
-      <c r="C95" s="48" t="s">
-        <v>280</v>
-      </c>
-      <c r="D95" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="E95" s="53"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="41"/>
-      <c r="J95" s="41"/>
-      <c r="K95" s="41"/>
-      <c r="L95" s="41"/>
-      <c r="M95" s="41"/>
-      <c r="N95" s="41"/>
-    </row>
-    <row r="96" ht="33.0" customHeight="1">
-      <c r="A96" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="B96" s="46"/>
-      <c r="C96" s="48" t="s">
-        <v>307</v>
-      </c>
-      <c r="D96" s="51" t="s">
-        <v>308</v>
-      </c>
-      <c r="E96" s="53"/>
-      <c r="F96" s="41"/>
-      <c r="G96" s="41"/>
-      <c r="H96" s="41"/>
-      <c r="I96" s="41"/>
-      <c r="J96" s="41"/>
-      <c r="K96" s="41"/>
-      <c r="L96" s="41"/>
-      <c r="M96" s="41"/>
-      <c r="N96" s="41"/>
-    </row>
-    <row r="97" ht="33.0" customHeight="1">
-      <c r="A97" s="44" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="46"/>
-      <c r="C97" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="D97" s="51" t="s">
-        <v>310</v>
-      </c>
-      <c r="E97" s="53"/>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-      <c r="I97" s="41"/>
-      <c r="J97" s="41"/>
-      <c r="K97" s="41"/>
-      <c r="L97" s="41"/>
-      <c r="M97" s="41"/>
-      <c r="N97" s="41"/>
-    </row>
-    <row r="98" ht="33.0" customHeight="1">
-      <c r="A98" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="B98" s="46"/>
-      <c r="C98" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="D98" s="51" t="s">
+      <c r="D98" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="E98" s="53"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
-      <c r="L98" s="41"/>
-      <c r="M98" s="41"/>
-      <c r="N98" s="41"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
+      <c r="K98" s="39"/>
+      <c r="L98" s="39"/>
+      <c r="M98" s="39"/>
+      <c r="N98" s="39"/>
     </row>
     <row r="99" ht="33.0" customHeight="1">
-      <c r="A99" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" s="56"/>
+      <c r="A99" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="53"/>
       <c r="C99" s="97" t="s">
         <v>312</v>
       </c>
-      <c r="D99" s="51" t="s">
+      <c r="D99" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="E99" s="53"/>
-      <c r="F99" s="41"/>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-      <c r="I99" s="41"/>
-      <c r="J99" s="41"/>
-      <c r="K99" s="41"/>
-      <c r="L99" s="41"/>
-      <c r="M99" s="41"/>
-      <c r="N99" s="41"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
     </row>
     <row r="100" ht="33.0" customHeight="1">
-      <c r="A100" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B100" s="58" t="s">
+      <c r="A100" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="C100" s="48" t="s">
+      <c r="C100" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="D100" s="51" t="s">
+      <c r="D100" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="E100" s="53"/>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
-      <c r="L100" s="41"/>
-      <c r="M100" s="41"/>
-      <c r="N100" s="41"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
     </row>
     <row r="101" ht="33.0" customHeight="1">
-      <c r="A101" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="B101" s="46"/>
-      <c r="C101" s="48" t="s">
+      <c r="A101" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" s="43"/>
+      <c r="C101" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="D101" s="51" t="s">
+      <c r="D101" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="E101" s="53"/>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
-      <c r="K101" s="41"/>
-      <c r="L101" s="41"/>
-      <c r="M101" s="41"/>
-      <c r="N101" s="41"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
+      <c r="K101" s="39"/>
+      <c r="L101" s="39"/>
+      <c r="M101" s="39"/>
+      <c r="N101" s="39"/>
     </row>
     <row r="102" ht="33.0" customHeight="1">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="43"/>
+      <c r="C102" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D102" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="E102" s="49"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="39"/>
+      <c r="L102" s="39"/>
+      <c r="M102" s="39"/>
+      <c r="N102" s="39"/>
+    </row>
+    <row r="103" ht="33.0" customHeight="1">
+      <c r="A103" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="43"/>
+      <c r="C103" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="E103" s="49"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="39"/>
+      <c r="M103" s="39"/>
+      <c r="N103" s="39"/>
+    </row>
+    <row r="104" ht="33.0" customHeight="1">
+      <c r="A104" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="B104" s="53"/>
+      <c r="C104" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D104" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="E104" s="49"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="39"/>
+      <c r="M104" s="39"/>
+      <c r="N104" s="39"/>
+    </row>
+    <row r="105" ht="33.0" customHeight="1">
+      <c r="A105" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="B102" s="46"/>
-      <c r="C102" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="D102" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="E102" s="53"/>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
-      <c r="K102" s="41"/>
-      <c r="L102" s="41"/>
-      <c r="M102" s="41"/>
-      <c r="N102" s="41"/>
-    </row>
-    <row r="103" ht="33.0" customHeight="1">
-      <c r="A103" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="B103" s="46"/>
-      <c r="C103" s="48" t="s">
-        <v>321</v>
-      </c>
-      <c r="D103" s="51" t="s">
-        <v>322</v>
-      </c>
-      <c r="E103" s="53"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
-      <c r="L103" s="41"/>
-      <c r="M103" s="41"/>
-      <c r="N103" s="41"/>
-    </row>
-    <row r="104" ht="33.0" customHeight="1">
-      <c r="A104" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="B104" s="56"/>
-      <c r="C104" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="E104" s="53"/>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
-      <c r="K104" s="41"/>
-      <c r="L104" s="41"/>
-      <c r="M104" s="41"/>
-      <c r="N104" s="41"/>
-    </row>
-    <row r="105" ht="33.0" customHeight="1">
-      <c r="A105" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="56" t="s">
         <v>325</v>
       </c>
-      <c r="C105" s="48" t="s">
+      <c r="C105" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="D105" s="51" t="s">
+      <c r="D105" s="47" t="s">
         <v>326</v>
       </c>
-      <c r="E105" s="53"/>
-      <c r="F105" s="41"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
-      <c r="K105" s="41"/>
-      <c r="L105" s="41"/>
-      <c r="M105" s="41"/>
-      <c r="N105" s="41"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="39"/>
     </row>
     <row r="106" ht="33.0" customHeight="1">
-      <c r="A106" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="B106" s="46"/>
-      <c r="C106" s="48" t="s">
+      <c r="A106" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="B106" s="43"/>
+      <c r="C106" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="D106" s="51" t="s">
+      <c r="D106" s="47" t="s">
         <v>328</v>
       </c>
-      <c r="E106" s="53"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
-      <c r="L106" s="41"/>
-      <c r="M106" s="41"/>
-      <c r="N106" s="41"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="39"/>
+      <c r="M106" s="39"/>
+      <c r="N106" s="39"/>
     </row>
     <row r="107" ht="33.0" customHeight="1">
-      <c r="A107" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="B107" s="46"/>
-      <c r="C107" s="48" t="s">
+      <c r="A107" s="41" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="43"/>
+      <c r="C107" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="D107" s="51" t="s">
+      <c r="D107" s="47" t="s">
         <v>330</v>
       </c>
-      <c r="E107" s="53"/>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
-      <c r="K107" s="41"/>
-      <c r="L107" s="41"/>
-      <c r="M107" s="41"/>
-      <c r="N107" s="41"/>
+      <c r="E107" s="49"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="39"/>
+      <c r="L107" s="39"/>
+      <c r="M107" s="39"/>
+      <c r="N107" s="39"/>
     </row>
     <row r="108" ht="33.0" customHeight="1">
-      <c r="A108" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="B108" s="56"/>
-      <c r="C108" s="48" t="s">
+      <c r="A108" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B108" s="53"/>
+      <c r="C108" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="E108" s="53"/>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="39"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="39"/>
+      <c r="M108" s="39"/>
+      <c r="N108" s="39"/>
     </row>
     <row r="109" ht="33.0" customHeight="1">
-      <c r="A109" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="B109" s="58" t="s">
+      <c r="A109" s="41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B109" s="56" t="s">
         <v>332</v>
       </c>
-      <c r="C109" s="48" t="s">
+      <c r="C109" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="D109" s="51" t="s">
+      <c r="D109" s="47" t="s">
         <v>333</v>
       </c>
-      <c r="E109" s="53"/>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-      <c r="K109" s="41"/>
-      <c r="L109" s="41"/>
-      <c r="M109" s="41"/>
-      <c r="N109" s="41"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
+      <c r="K109" s="39"/>
+      <c r="L109" s="39"/>
+      <c r="M109" s="39"/>
+      <c r="N109" s="39"/>
     </row>
     <row r="110" ht="33.0" customHeight="1">
-      <c r="A110" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="B110" s="46"/>
-      <c r="C110" s="48" t="s">
+      <c r="A110" s="41" t="s">
+        <v>231</v>
+      </c>
+      <c r="B110" s="43"/>
+      <c r="C110" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="D110" s="51" t="s">
+      <c r="D110" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="E110" s="53"/>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
-      <c r="L110" s="41"/>
-      <c r="M110" s="41"/>
-      <c r="N110" s="41"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="39"/>
+      <c r="L110" s="39"/>
+      <c r="M110" s="39"/>
+      <c r="N110" s="39"/>
     </row>
     <row r="111" ht="33.0" customHeight="1">
-      <c r="A111" s="44" t="s">
+      <c r="A111" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="B111" s="46"/>
-      <c r="C111" s="48" t="s">
+      <c r="B111" s="43"/>
+      <c r="C111" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="D111" s="51" t="s">
+      <c r="D111" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="E111" s="53"/>
-      <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
-      <c r="K111" s="41"/>
-      <c r="L111" s="41"/>
-      <c r="M111" s="41"/>
-      <c r="N111" s="41"/>
+      <c r="E111" s="49"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="39"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="39"/>
     </row>
     <row r="112" ht="33.0" customHeight="1">
-      <c r="A112" s="44" t="s">
+      <c r="A112" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="B112" s="56"/>
-      <c r="C112" s="48" t="s">
+      <c r="B112" s="53"/>
+      <c r="C112" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="D112" s="51" t="s">
+      <c r="D112" s="47" t="s">
         <v>337</v>
       </c>
-      <c r="E112" s="53"/>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
-      <c r="H112" s="41"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="41"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="41"/>
-      <c r="N112" s="41"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="39"/>
+      <c r="M112" s="39"/>
+      <c r="N112" s="39"/>
     </row>
     <row r="113" ht="11.25" customHeight="1">
-      <c r="A113" s="94"/>
-      <c r="B113" s="41"/>
-      <c r="C113" s="41"/>
-      <c r="D113" s="41"/>
-      <c r="E113" s="95"/>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="41"/>
-      <c r="I113" s="41"/>
-      <c r="J113" s="41"/>
-      <c r="K113" s="41"/>
-      <c r="L113" s="41"/>
-      <c r="M113" s="41"/>
-      <c r="N113" s="41"/>
+      <c r="A113" s="92"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="94"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="39"/>
+      <c r="M113" s="39"/>
+      <c r="N113" s="39"/>
     </row>
     <row r="114" ht="38.25" customHeight="1">
       <c r="A114" s="98" t="s">
         <v>338</v>
       </c>
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="29"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="41"/>
-      <c r="K114" s="41"/>
-      <c r="L114" s="41"/>
-      <c r="M114" s="41"/>
-      <c r="N114" s="41"/>
+      <c r="B114" s="23"/>
+      <c r="C114" s="23"/>
+      <c r="D114" s="23"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="39"/>
+      <c r="M114" s="39"/>
+      <c r="N114" s="39"/>
     </row>
     <row r="115" ht="38.25" customHeight="1">
-      <c r="A115" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B115" s="36" t="s">
+      <c r="A115" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="C115" s="37" t="s">
+      <c r="C115" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="D115" s="38" t="s">
+      <c r="D115" s="35" t="s">
         <v>341</v>
       </c>
-      <c r="E115" s="39"/>
-      <c r="F115" s="41"/>
-      <c r="G115" s="41"/>
-      <c r="H115" s="41"/>
-      <c r="I115" s="41"/>
-      <c r="J115" s="41"/>
-      <c r="K115" s="41"/>
-      <c r="L115" s="41"/>
-      <c r="M115" s="41"/>
-      <c r="N115" s="41"/>
+      <c r="E115" s="37"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="39"/>
+      <c r="K115" s="39"/>
+      <c r="L115" s="39"/>
+      <c r="M115" s="39"/>
+      <c r="N115" s="39"/>
     </row>
     <row r="116" ht="38.25" customHeight="1">
-      <c r="A116" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B116" s="46"/>
-      <c r="C116" s="48" t="s">
+      <c r="A116" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B116" s="43"/>
+      <c r="C116" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="D116" s="51" t="s">
+      <c r="D116" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="E116" s="53"/>
-      <c r="F116" s="41"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
-      <c r="L116" s="41"/>
-      <c r="M116" s="41"/>
-      <c r="N116" s="41"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="39"/>
+      <c r="K116" s="39"/>
+      <c r="L116" s="39"/>
+      <c r="M116" s="39"/>
+      <c r="N116" s="39"/>
     </row>
     <row r="117" ht="38.25" customHeight="1">
-      <c r="A117" s="44" t="s">
+      <c r="A117" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="46"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="D117" s="51" t="s">
+      <c r="D117" s="47" t="s">
         <v>345</v>
       </c>
-      <c r="E117" s="53"/>
-      <c r="F117" s="41"/>
-      <c r="G117" s="41"/>
-      <c r="H117" s="41"/>
-      <c r="I117" s="41"/>
-      <c r="J117" s="41"/>
-      <c r="K117" s="41"/>
-      <c r="L117" s="41"/>
-      <c r="M117" s="41"/>
-      <c r="N117" s="41"/>
+      <c r="E117" s="49"/>
+      <c r="F117" s="39"/>
+      <c r="G117" s="39"/>
+      <c r="H117" s="39"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="39"/>
+      <c r="K117" s="39"/>
+      <c r="L117" s="39"/>
+      <c r="M117" s="39"/>
+      <c r="N117" s="39"/>
     </row>
     <row r="118" ht="38.25" customHeight="1">
-      <c r="A118" s="44" t="s">
+      <c r="A118" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="46"/>
-      <c r="C118" s="48" t="s">
+      <c r="B118" s="43"/>
+      <c r="C118" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="D118" s="51" t="s">
+      <c r="D118" s="47" t="s">
         <v>347</v>
       </c>
-      <c r="E118" s="53"/>
-      <c r="F118" s="41"/>
-      <c r="G118" s="41"/>
-      <c r="H118" s="41"/>
-      <c r="I118" s="41"/>
-      <c r="J118" s="41"/>
-      <c r="K118" s="41"/>
-      <c r="L118" s="41"/>
-      <c r="M118" s="41"/>
-      <c r="N118" s="41"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="39"/>
+      <c r="K118" s="39"/>
+      <c r="L118" s="39"/>
+      <c r="M118" s="39"/>
+      <c r="N118" s="39"/>
     </row>
     <row r="119" ht="38.25" customHeight="1">
-      <c r="A119" s="44" t="s">
+      <c r="A119" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="46"/>
-      <c r="C119" s="48" t="s">
+      <c r="B119" s="43"/>
+      <c r="C119" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="D119" s="51" t="s">
+      <c r="D119" s="47" t="s">
         <v>349</v>
       </c>
-      <c r="E119" s="53"/>
-      <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
-      <c r="H119" s="41"/>
-      <c r="I119" s="41"/>
-      <c r="J119" s="41"/>
-      <c r="K119" s="41"/>
-      <c r="L119" s="41"/>
-      <c r="M119" s="41"/>
-      <c r="N119" s="41"/>
+      <c r="E119" s="49"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
+      <c r="K119" s="39"/>
+      <c r="L119" s="39"/>
+      <c r="M119" s="39"/>
+      <c r="N119" s="39"/>
     </row>
     <row r="120" ht="38.25" customHeight="1">
-      <c r="A120" s="44" t="s">
+      <c r="A120" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B120" s="46"/>
-      <c r="C120" s="48" t="s">
+      <c r="B120" s="43"/>
+      <c r="C120" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="D120" s="51" t="s">
+      <c r="D120" s="47" t="s">
         <v>351</v>
       </c>
-      <c r="E120" s="53"/>
-      <c r="F120" s="41"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-      <c r="K120" s="41"/>
-      <c r="L120" s="41"/>
-      <c r="M120" s="41"/>
-      <c r="N120" s="41"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="39"/>
+      <c r="K120" s="39"/>
+      <c r="L120" s="39"/>
+      <c r="M120" s="39"/>
+      <c r="N120" s="39"/>
     </row>
     <row r="121" ht="38.25" customHeight="1">
-      <c r="A121" s="44" t="s">
+      <c r="A121" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B121" s="46"/>
-      <c r="C121" s="48" t="s">
+      <c r="B121" s="43"/>
+      <c r="C121" s="45" t="s">
         <v>352</v>
       </c>
-      <c r="D121" s="51" t="s">
+      <c r="D121" s="47" t="s">
         <v>353</v>
       </c>
-      <c r="E121" s="53"/>
-      <c r="F121" s="41"/>
-      <c r="G121" s="41"/>
-      <c r="H121" s="41"/>
-      <c r="I121" s="41"/>
-      <c r="J121" s="41"/>
-      <c r="K121" s="41"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="41"/>
-      <c r="N121" s="41"/>
+      <c r="E121" s="49"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
+      <c r="K121" s="39"/>
+      <c r="L121" s="39"/>
+      <c r="M121" s="39"/>
+      <c r="N121" s="39"/>
     </row>
     <row r="122" ht="38.25" customHeight="1">
-      <c r="A122" s="44" t="s">
+      <c r="A122" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B122" s="46"/>
-      <c r="C122" s="48" t="s">
+      <c r="B122" s="43"/>
+      <c r="C122" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="D122" s="51" t="s">
+      <c r="D122" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="E122" s="53"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="41"/>
-      <c r="K122" s="41"/>
-      <c r="L122" s="41"/>
-      <c r="M122" s="41"/>
-      <c r="N122" s="41"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="39"/>
+      <c r="K122" s="39"/>
+      <c r="L122" s="39"/>
+      <c r="M122" s="39"/>
+      <c r="N122" s="39"/>
     </row>
     <row r="123" ht="38.25" customHeight="1">
-      <c r="A123" s="44" t="s">
+      <c r="A123" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B123" s="46"/>
-      <c r="C123" s="48" t="s">
+      <c r="B123" s="43"/>
+      <c r="C123" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="D123" s="51" t="s">
+      <c r="D123" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="E123" s="53"/>
-      <c r="F123" s="41"/>
-      <c r="G123" s="41"/>
-      <c r="H123" s="41"/>
-      <c r="I123" s="41"/>
-      <c r="J123" s="41"/>
-      <c r="K123" s="41"/>
-      <c r="L123" s="41"/>
-      <c r="M123" s="41"/>
-      <c r="N123" s="41"/>
+      <c r="E123" s="49"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="39"/>
+      <c r="K123" s="39"/>
+      <c r="L123" s="39"/>
+      <c r="M123" s="39"/>
+      <c r="N123" s="39"/>
     </row>
     <row r="124" ht="38.25" customHeight="1">
-      <c r="A124" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B124" s="56"/>
-      <c r="C124" s="48" t="s">
+      <c r="A124" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="53"/>
+      <c r="C124" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="D124" s="51" t="s">
+      <c r="D124" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="E124" s="53"/>
-      <c r="F124" s="41"/>
-      <c r="G124" s="41"/>
-      <c r="H124" s="41"/>
-      <c r="I124" s="41"/>
-      <c r="J124" s="41"/>
-      <c r="K124" s="41"/>
-      <c r="L124" s="41"/>
-      <c r="M124" s="41"/>
-      <c r="N124" s="41"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="39"/>
+      <c r="K124" s="39"/>
+      <c r="L124" s="39"/>
+      <c r="M124" s="39"/>
+      <c r="N124" s="39"/>
     </row>
     <row r="125" ht="38.25" customHeight="1">
-      <c r="A125" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" s="58" t="s">
+      <c r="A125" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="56" t="s">
         <v>360</v>
       </c>
-      <c r="C125" s="48" t="s">
+      <c r="C125" s="45" t="s">
         <v>361</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D125" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="E125" s="53"/>
-      <c r="F125" s="41"/>
-      <c r="G125" s="41"/>
-      <c r="H125" s="41"/>
-      <c r="I125" s="41"/>
-      <c r="J125" s="41"/>
-      <c r="K125" s="41"/>
-      <c r="L125" s="41"/>
-      <c r="M125" s="41"/>
-      <c r="N125" s="41"/>
+      <c r="E125" s="49"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
+      <c r="K125" s="39"/>
+      <c r="L125" s="39"/>
+      <c r="M125" s="39"/>
+      <c r="N125" s="39"/>
     </row>
     <row r="126" ht="38.25" customHeight="1">
-      <c r="A126" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B126" s="46"/>
-      <c r="C126" s="48" t="s">
+      <c r="A126" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" s="43"/>
+      <c r="C126" s="45" t="s">
         <v>363</v>
       </c>
-      <c r="D126" s="51" t="s">
+      <c r="D126" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="E126" s="53"/>
-      <c r="F126" s="41"/>
-      <c r="G126" s="41"/>
-      <c r="H126" s="41"/>
-      <c r="I126" s="41"/>
-      <c r="J126" s="41"/>
-      <c r="K126" s="41"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="41"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="39"/>
+      <c r="K126" s="39"/>
+      <c r="L126" s="39"/>
+      <c r="M126" s="39"/>
+      <c r="N126" s="39"/>
     </row>
     <row r="127" ht="38.25" customHeight="1">
-      <c r="A127" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B127" s="46"/>
-      <c r="C127" s="48" t="s">
+      <c r="A127" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127" s="43"/>
+      <c r="C127" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="D127" s="51" t="s">
+      <c r="D127" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="E127" s="53"/>
-      <c r="F127" s="41"/>
-      <c r="G127" s="41"/>
-      <c r="H127" s="41"/>
-      <c r="I127" s="41"/>
-      <c r="J127" s="41"/>
-      <c r="K127" s="41"/>
-      <c r="L127" s="41"/>
-      <c r="M127" s="41"/>
-      <c r="N127" s="41"/>
+      <c r="E127" s="49"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="39"/>
+      <c r="K127" s="39"/>
+      <c r="L127" s="39"/>
+      <c r="M127" s="39"/>
+      <c r="N127" s="39"/>
     </row>
     <row r="128" ht="38.25" customHeight="1">
-      <c r="A128" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B128" s="46"/>
-      <c r="C128" s="48" t="s">
+      <c r="A128" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B128" s="43"/>
+      <c r="C128" s="45" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="51" t="s">
+      <c r="D128" s="47" t="s">
         <v>368</v>
       </c>
-      <c r="E128" s="53"/>
-      <c r="F128" s="41"/>
-      <c r="G128" s="41"/>
-      <c r="H128" s="41"/>
-      <c r="I128" s="41"/>
-      <c r="J128" s="41"/>
-      <c r="K128" s="41"/>
-      <c r="L128" s="41"/>
-      <c r="M128" s="41"/>
-      <c r="N128" s="41"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="39"/>
+      <c r="J128" s="39"/>
+      <c r="K128" s="39"/>
+      <c r="L128" s="39"/>
+      <c r="M128" s="39"/>
+      <c r="N128" s="39"/>
     </row>
     <row r="129" ht="38.25" customHeight="1">
-      <c r="A129" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="B129" s="46"/>
-      <c r="C129" s="48" t="s">
+      <c r="A129" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B129" s="43"/>
+      <c r="C129" s="45" t="s">
         <v>369</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="47" t="s">
         <v>370</v>
       </c>
-      <c r="E129" s="53"/>
-      <c r="F129" s="41"/>
-      <c r="G129" s="41"/>
-      <c r="H129" s="41"/>
-      <c r="I129" s="41"/>
-      <c r="J129" s="41"/>
-      <c r="K129" s="41"/>
-      <c r="L129" s="41"/>
-      <c r="M129" s="41"/>
-      <c r="N129" s="41"/>
+      <c r="E129" s="49"/>
+      <c r="F129" s="39"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="39"/>
+      <c r="K129" s="39"/>
+      <c r="L129" s="39"/>
+      <c r="M129" s="39"/>
+      <c r="N129" s="39"/>
     </row>
     <row r="130" ht="38.25" customHeight="1">
-      <c r="A130" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B130" s="46"/>
-      <c r="C130" s="48" t="s">
+      <c r="A130" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" s="43"/>
+      <c r="C130" s="45" t="s">
         <v>371</v>
       </c>
-      <c r="D130" s="51" t="s">
+      <c r="D130" s="47" t="s">
         <v>372</v>
       </c>
-      <c r="E130" s="53"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-      <c r="K130" s="41"/>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="41"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="39"/>
+      <c r="K130" s="39"/>
+      <c r="L130" s="39"/>
+      <c r="M130" s="39"/>
+      <c r="N130" s="39"/>
     </row>
     <row r="131" ht="38.25" customHeight="1">
-      <c r="A131" s="44" t="s">
+      <c r="A131" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B131" s="43"/>
+      <c r="C131" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" s="47" t="s">
+        <v>374</v>
+      </c>
+      <c r="E131" s="49"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
+      <c r="K131" s="39"/>
+      <c r="L131" s="39"/>
+      <c r="M131" s="39"/>
+      <c r="N131" s="39"/>
+    </row>
+    <row r="132" ht="38.25" customHeight="1">
+      <c r="A132" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B131" s="46"/>
-      <c r="C131" s="48" t="s">
-        <v>373</v>
-      </c>
-      <c r="D131" s="51" t="s">
-        <v>374</v>
-      </c>
-      <c r="E131" s="53"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="41"/>
-      <c r="H131" s="41"/>
-      <c r="I131" s="41"/>
-      <c r="J131" s="41"/>
-      <c r="K131" s="41"/>
-      <c r="L131" s="41"/>
-      <c r="M131" s="41"/>
-      <c r="N131" s="41"/>
-    </row>
-    <row r="132" ht="38.25" customHeight="1">
-      <c r="A132" s="44" t="s">
+      <c r="B132" s="53"/>
+      <c r="C132" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="D132" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="E132" s="49"/>
+      <c r="F132" s="39"/>
+      <c r="G132" s="39"/>
+      <c r="H132" s="39"/>
+      <c r="I132" s="39"/>
+      <c r="J132" s="39"/>
+      <c r="K132" s="39"/>
+      <c r="L132" s="39"/>
+      <c r="M132" s="39"/>
+      <c r="N132" s="39"/>
+    </row>
+    <row r="133" ht="38.25" customHeight="1">
+      <c r="A133" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B132" s="56"/>
-      <c r="C132" s="48" t="s">
-        <v>375</v>
-      </c>
-      <c r="D132" s="51" t="s">
-        <v>376</v>
-      </c>
-      <c r="E132" s="53"/>
-      <c r="F132" s="41"/>
-      <c r="G132" s="41"/>
-      <c r="H132" s="41"/>
-      <c r="I132" s="41"/>
-      <c r="J132" s="41"/>
-      <c r="K132" s="41"/>
-      <c r="L132" s="41"/>
-      <c r="M132" s="41"/>
-      <c r="N132" s="41"/>
-    </row>
-    <row r="133" ht="38.25" customHeight="1">
-      <c r="A133" s="44" t="s">
+      <c r="B133" s="56" t="s">
+        <v>377</v>
+      </c>
+      <c r="C133" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="D133" s="47" t="s">
+        <v>379</v>
+      </c>
+      <c r="E133" s="49"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
+      <c r="K133" s="39"/>
+      <c r="L133" s="39"/>
+      <c r="M133" s="39"/>
+      <c r="N133" s="39"/>
+    </row>
+    <row r="134" ht="38.25" customHeight="1">
+      <c r="A134" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B133" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="C133" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="D133" s="51" t="s">
-        <v>379</v>
-      </c>
-      <c r="E133" s="53"/>
-      <c r="F133" s="41"/>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-      <c r="K133" s="41"/>
-      <c r="L133" s="41"/>
-      <c r="M133" s="41"/>
-      <c r="N133" s="41"/>
-    </row>
-    <row r="134" ht="38.25" customHeight="1">
-      <c r="A134" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B134" s="46"/>
-      <c r="C134" s="48" t="s">
+      <c r="B134" s="43"/>
+      <c r="C134" s="45" t="s">
         <v>380</v>
       </c>
-      <c r="D134" s="51" t="s">
+      <c r="D134" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="E134" s="53"/>
-      <c r="F134" s="41"/>
-      <c r="G134" s="41"/>
-      <c r="H134" s="41"/>
-      <c r="I134" s="41"/>
-      <c r="J134" s="41"/>
-      <c r="K134" s="41"/>
-      <c r="L134" s="41"/>
-      <c r="M134" s="41"/>
-      <c r="N134" s="41"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="39"/>
+      <c r="K134" s="39"/>
+      <c r="L134" s="39"/>
+      <c r="M134" s="39"/>
+      <c r="N134" s="39"/>
     </row>
     <row r="135" ht="38.25" customHeight="1">
-      <c r="A135" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="B135" s="46"/>
-      <c r="C135" s="48" t="s">
+      <c r="A135" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B135" s="43"/>
+      <c r="C135" s="45" t="s">
         <v>382</v>
       </c>
-      <c r="D135" s="51" t="s">
+      <c r="D135" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="E135" s="53"/>
-      <c r="F135" s="41"/>
-      <c r="G135" s="41"/>
-      <c r="H135" s="41"/>
-      <c r="I135" s="41"/>
-      <c r="J135" s="41"/>
-      <c r="K135" s="41"/>
-      <c r="L135" s="41"/>
-      <c r="M135" s="41"/>
-      <c r="N135" s="41"/>
+      <c r="E135" s="49"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="39"/>
+      <c r="L135" s="39"/>
+      <c r="M135" s="39"/>
+      <c r="N135" s="39"/>
     </row>
     <row r="136" ht="38.25" customHeight="1">
-      <c r="A136" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B136" s="46"/>
-      <c r="C136" s="48" t="s">
+      <c r="A136" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="B136" s="43"/>
+      <c r="C136" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="D136" s="51" t="s">
+      <c r="D136" s="47" t="s">
         <v>385</v>
       </c>
-      <c r="E136" s="53"/>
-      <c r="F136" s="41"/>
-      <c r="G136" s="41"/>
-      <c r="H136" s="41"/>
-      <c r="I136" s="41"/>
-      <c r="J136" s="41"/>
-      <c r="K136" s="41"/>
-      <c r="L136" s="41"/>
-      <c r="M136" s="41"/>
-      <c r="N136" s="41"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="39"/>
+      <c r="M136" s="39"/>
+      <c r="N136" s="39"/>
     </row>
     <row r="137" ht="38.25" customHeight="1">
-      <c r="A137" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B137" s="46"/>
-      <c r="C137" s="48" t="s">
+      <c r="A137" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="B137" s="43"/>
+      <c r="C137" s="45" t="s">
         <v>386</v>
       </c>
-      <c r="D137" s="51" t="s">
+      <c r="D137" s="47" t="s">
         <v>387</v>
       </c>
-      <c r="E137" s="53"/>
-      <c r="F137" s="41"/>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-      <c r="K137" s="41"/>
-      <c r="L137" s="41"/>
-      <c r="M137" s="41"/>
-      <c r="N137" s="41"/>
+      <c r="E137" s="49"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
+      <c r="J137" s="39"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="39"/>
+      <c r="M137" s="39"/>
+      <c r="N137" s="39"/>
     </row>
     <row r="138" ht="38.25" customHeight="1">
-      <c r="A138" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B138" s="46"/>
-      <c r="C138" s="48" t="s">
+      <c r="A138" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B138" s="43"/>
+      <c r="C138" s="45" t="s">
         <v>388</v>
       </c>
-      <c r="D138" s="51" t="s">
+      <c r="D138" s="47" t="s">
         <v>389</v>
       </c>
-      <c r="E138" s="53"/>
-      <c r="F138" s="41"/>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="41"/>
-      <c r="K138" s="41"/>
-      <c r="L138" s="41"/>
-      <c r="M138" s="41"/>
-      <c r="N138" s="41"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
+      <c r="J138" s="39"/>
+      <c r="K138" s="39"/>
+      <c r="L138" s="39"/>
+      <c r="M138" s="39"/>
+      <c r="N138" s="39"/>
     </row>
     <row r="139" ht="38.25" customHeight="1">
-      <c r="A139" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="B139" s="46"/>
-      <c r="C139" s="48" t="s">
+      <c r="A139" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="B139" s="43"/>
+      <c r="C139" s="45" t="s">
         <v>390</v>
       </c>
-      <c r="D139" s="51" t="s">
+      <c r="D139" s="47" t="s">
         <v>391</v>
       </c>
-      <c r="E139" s="53"/>
-      <c r="F139" s="41"/>
-      <c r="G139" s="41"/>
-      <c r="H139" s="41"/>
-      <c r="I139" s="41"/>
-      <c r="J139" s="41"/>
-      <c r="K139" s="41"/>
-      <c r="L139" s="41"/>
-      <c r="M139" s="41"/>
-      <c r="N139" s="41"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="39"/>
+      <c r="K139" s="39"/>
+      <c r="L139" s="39"/>
+      <c r="M139" s="39"/>
+      <c r="N139" s="39"/>
     </row>
     <row r="140" ht="38.25" customHeight="1">
-      <c r="A140" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B140" s="46"/>
-      <c r="C140" s="48" t="s">
+      <c r="A140" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B140" s="43"/>
+      <c r="C140" s="45" t="s">
         <v>392</v>
       </c>
-      <c r="D140" s="51" t="s">
+      <c r="D140" s="47" t="s">
         <v>393</v>
       </c>
-      <c r="E140" s="53"/>
-      <c r="F140" s="41"/>
-      <c r="G140" s="41"/>
-      <c r="H140" s="41"/>
-      <c r="I140" s="41"/>
-      <c r="J140" s="41"/>
-      <c r="K140" s="41"/>
-      <c r="L140" s="41"/>
-      <c r="M140" s="41"/>
-      <c r="N140" s="41"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="39"/>
+      <c r="K140" s="39"/>
+      <c r="L140" s="39"/>
+      <c r="M140" s="39"/>
+      <c r="N140" s="39"/>
     </row>
     <row r="141" ht="38.25" customHeight="1">
-      <c r="A141" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="B141" s="46"/>
-      <c r="C141" s="48" t="s">
+      <c r="A141" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141" s="43"/>
+      <c r="C141" s="45" t="s">
         <v>394</v>
       </c>
-      <c r="D141" s="51" t="s">
+      <c r="D141" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="E141" s="53"/>
-      <c r="F141" s="41"/>
-      <c r="G141" s="41"/>
-      <c r="H141" s="41"/>
-      <c r="I141" s="41"/>
-      <c r="J141" s="41"/>
-      <c r="K141" s="41"/>
-      <c r="L141" s="41"/>
-      <c r="M141" s="41"/>
-      <c r="N141" s="41"/>
+      <c r="E141" s="49"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="39"/>
+      <c r="K141" s="39"/>
+      <c r="L141" s="39"/>
+      <c r="M141" s="39"/>
+      <c r="N141" s="39"/>
     </row>
     <row r="142" ht="38.25" customHeight="1">
-      <c r="A142" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="B142" s="46"/>
-      <c r="C142" s="48" t="s">
+      <c r="A142" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="B142" s="43"/>
+      <c r="C142" s="45" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="51" t="s">
+      <c r="D142" s="47" t="s">
         <v>397</v>
       </c>
-      <c r="E142" s="53"/>
-      <c r="F142" s="41"/>
-      <c r="G142" s="41"/>
-      <c r="H142" s="41"/>
-      <c r="I142" s="41"/>
-      <c r="J142" s="41"/>
-      <c r="K142" s="41"/>
-      <c r="L142" s="41"/>
-      <c r="M142" s="41"/>
-      <c r="N142" s="41"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="39"/>
+      <c r="G142" s="39"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="39"/>
+      <c r="J142" s="39"/>
+      <c r="K142" s="39"/>
+      <c r="L142" s="39"/>
+      <c r="M142" s="39"/>
+      <c r="N142" s="39"/>
     </row>
     <row r="143" ht="38.25" customHeight="1">
-      <c r="A143" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="B143" s="46"/>
-      <c r="C143" s="48" t="s">
+      <c r="A143" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B143" s="43"/>
+      <c r="C143" s="45" t="s">
         <v>398</v>
       </c>
-      <c r="D143" s="51" t="s">
+      <c r="D143" s="47" t="s">
         <v>399</v>
       </c>
-      <c r="E143" s="53"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="41"/>
-      <c r="J143" s="41"/>
-      <c r="K143" s="41"/>
-      <c r="L143" s="41"/>
-      <c r="M143" s="41"/>
-      <c r="N143" s="41"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="39"/>
+      <c r="J143" s="39"/>
+      <c r="K143" s="39"/>
+      <c r="L143" s="39"/>
+      <c r="M143" s="39"/>
+      <c r="N143" s="39"/>
     </row>
     <row r="144" ht="38.25" customHeight="1">
       <c r="A144" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="B144" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="B144" s="13"/>
       <c r="C144" s="100" t="s">
         <v>400</v>
       </c>
@@ -7386,15 +7400,15 @@
         <v>401</v>
       </c>
       <c r="E144" s="102"/>
-      <c r="F144" s="41"/>
-      <c r="G144" s="41"/>
-      <c r="H144" s="41"/>
-      <c r="I144" s="41"/>
-      <c r="J144" s="41"/>
-      <c r="K144" s="41"/>
-      <c r="L144" s="41"/>
-      <c r="M144" s="41"/>
-      <c r="N144" s="41"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="39"/>
+      <c r="J144" s="39"/>
+      <c r="K144" s="39"/>
+      <c r="L144" s="39"/>
+      <c r="M144" s="39"/>
+      <c r="N144" s="39"/>
     </row>
     <row r="145" ht="16.5" customHeight="1"/>
     <row r="146" ht="16.5" customHeight="1"/>

--- a/작업완료포트폴리오/2. 요구사항정의서/[6기]1조_전자결재페이지_요구사항정의서_V1.0.xlsx
+++ b/작업완료포트폴리오/2. 요구사항정의서/[6기]1조_전자결재페이지_요구사항정의서_V1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="문서 이력 및 요약" sheetId="1" r:id="rId1"/>
@@ -2063,92 +2063,122 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2159,41 +2189,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2415,8 +2415,8 @@
   </sheetPr>
   <dimension ref="A1:Z1016"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2430,19 +2430,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="79"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="72"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2460,7 +2460,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
@@ -2470,7 +2470,7 @@
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
-      <c r="K2" s="75"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2492,22 +2492,22 @@
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="74"/>
+      <c r="A5" s="67"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -2517,7 +2517,7 @@
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
       <c r="J5" s="56"/>
-      <c r="K5" s="75"/>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -2526,7 +2526,7 @@
       <c r="B6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="73" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="56"/>
@@ -2547,16 +2547,16 @@
       <c r="B7" s="17">
         <v>43712</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="21" t="s">
         <v>19</v>
       </c>
@@ -2564,85 +2564,85 @@
     <row r="8" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23"/>
       <c r="B8" s="25"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
       <c r="K8" s="21"/>
     </row>
     <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26"/>
       <c r="B9" s="27"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60"/>
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="60"/>
       <c r="K10" s="28"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="29"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="60"/>
       <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23"/>
       <c r="B12" s="29"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="23"/>
       <c r="B13" s="29"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="81"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
@@ -2657,22 +2657,22 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="74"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="56"/>
       <c r="C17" s="56"/>
       <c r="D17" s="56"/>
@@ -2682,13 +2682,13 @@
       <c r="H17" s="56"/>
       <c r="I17" s="56"/>
       <c r="J17" s="56"/>
-      <c r="K17" s="75"/>
+      <c r="K17" s="68"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="55" t="s">
         <v>66</v>
       </c>
       <c r="C18" s="56"/>
@@ -2707,17 +2707,17 @@
       <c r="A19" s="34">
         <v>1</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="60"/>
       <c r="K19" s="21" t="s">
         <v>19</v>
       </c>
@@ -2726,17 +2726,17 @@
       <c r="A20" s="35">
         <v>2</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="69"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="60"/>
       <c r="K20" s="21" t="s">
         <v>19</v>
       </c>
@@ -2745,17 +2745,17 @@
       <c r="A21" s="34">
         <v>3</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="69"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="60"/>
       <c r="K21" s="21" t="s">
         <v>19</v>
       </c>
@@ -2764,17 +2764,17 @@
       <c r="A22" s="35">
         <v>4</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="60"/>
       <c r="K22" s="21" t="s">
         <v>19</v>
       </c>
@@ -2783,17 +2783,17 @@
       <c r="A23" s="34">
         <v>5</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="60"/>
       <c r="K23" s="21" t="s">
         <v>19</v>
       </c>
@@ -2802,17 +2802,17 @@
       <c r="A24" s="35">
         <v>6</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
       <c r="K24" s="21" t="s">
         <v>19</v>
       </c>
@@ -2821,17 +2821,17 @@
       <c r="A25" s="34">
         <v>7</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-      <c r="J25" s="69"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
       <c r="K25" s="21" t="s">
         <v>19</v>
       </c>
@@ -2840,17 +2840,17 @@
       <c r="A26" s="35">
         <v>8</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="58" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="69"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="21" t="s">
         <v>19</v>
       </c>
@@ -2882,22 +2882,22 @@
       <c r="K28" s="38"/>
     </row>
     <row r="29" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
+      <c r="A29" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="72"/>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="73"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="66"/>
     </row>
     <row r="30" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="74"/>
+      <c r="A30" s="67"/>
       <c r="B30" s="56"/>
       <c r="C30" s="56"/>
       <c r="D30" s="56"/>
@@ -2907,17 +2907,17 @@
       <c r="H30" s="56"/>
       <c r="I30" s="56"/>
       <c r="J30" s="56"/>
-      <c r="K30" s="75"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="74" t="s">
         <v>125</v>
       </c>
       <c r="C31" s="57"/>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="74" t="s">
         <v>129</v>
       </c>
       <c r="E31" s="56"/>
@@ -2934,11 +2934,11 @@
       <c r="A32" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="74" t="s">
         <v>134</v>
       </c>
       <c r="C32" s="57"/>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="78" t="s">
         <v>135</v>
       </c>
       <c r="E32" s="56"/>
@@ -2955,11 +2955,11 @@
       <c r="A33" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="74" t="s">
         <v>138</v>
       </c>
       <c r="C33" s="57"/>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="78" t="s">
         <v>139</v>
       </c>
       <c r="E33" s="56"/>
@@ -2976,11 +2976,11 @@
       <c r="A34" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="74" t="s">
         <v>145</v>
       </c>
       <c r="C34" s="57"/>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="78" t="s">
         <v>149</v>
       </c>
       <c r="E34" s="56"/>
@@ -2997,11 +2997,11 @@
       <c r="A35" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="74" t="s">
         <v>154</v>
       </c>
       <c r="C35" s="57"/>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="78" t="s">
         <v>158</v>
       </c>
       <c r="E35" s="56"/>
@@ -3018,11 +3018,11 @@
       <c r="A36" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="74" t="s">
         <v>162</v>
       </c>
       <c r="C36" s="57"/>
-      <c r="D36" s="59" t="s">
+      <c r="D36" s="78" t="s">
         <v>164</v>
       </c>
       <c r="E36" s="56"/>
@@ -3039,11 +3039,11 @@
       <c r="A37" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="75" t="s">
         <v>169</v>
       </c>
       <c r="C37" s="57"/>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="79" t="s">
         <v>173</v>
       </c>
       <c r="E37" s="56"/>
@@ -3060,11 +3060,11 @@
       <c r="A38" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="75" t="s">
         <v>181</v>
       </c>
       <c r="C38" s="57"/>
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="78" t="s">
         <v>182</v>
       </c>
       <c r="E38" s="56"/>
@@ -3081,11 +3081,11 @@
       <c r="A39" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="76" t="s">
+      <c r="B39" s="75" t="s">
         <v>187</v>
       </c>
       <c r="C39" s="57"/>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="79" t="s">
         <v>188</v>
       </c>
       <c r="E39" s="56"/>
@@ -3102,11 +3102,11 @@
       <c r="A40" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="74" t="s">
         <v>192</v>
       </c>
       <c r="C40" s="57"/>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="78" t="s">
         <v>194</v>
       </c>
       <c r="E40" s="56"/>
@@ -3123,11 +3123,11 @@
       <c r="A41" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="74" t="s">
         <v>198</v>
       </c>
       <c r="C41" s="57"/>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="78" t="s">
         <v>200</v>
       </c>
       <c r="E41" s="56"/>
@@ -3144,11 +3144,11 @@
       <c r="A42" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="74" t="s">
         <v>203</v>
       </c>
       <c r="C42" s="57"/>
-      <c r="D42" s="59" t="s">
+      <c r="D42" s="78" t="s">
         <v>206</v>
       </c>
       <c r="E42" s="56"/>
@@ -3165,11 +3165,11 @@
       <c r="A43" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="74" t="s">
         <v>208</v>
       </c>
       <c r="C43" s="57"/>
-      <c r="D43" s="59" t="s">
+      <c r="D43" s="78" t="s">
         <v>209</v>
       </c>
       <c r="E43" s="56"/>
@@ -3186,11 +3186,11 @@
       <c r="A44" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="74" t="s">
         <v>215</v>
       </c>
       <c r="C44" s="57"/>
-      <c r="D44" s="59" t="s">
+      <c r="D44" s="78" t="s">
         <v>216</v>
       </c>
       <c r="E44" s="56"/>
@@ -3207,11 +3207,11 @@
       <c r="A45" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="74" t="s">
         <v>218</v>
       </c>
       <c r="C45" s="57"/>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="78" t="s">
         <v>219</v>
       </c>
       <c r="E45" s="56"/>
@@ -3228,11 +3228,11 @@
       <c r="A46" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="74" t="s">
         <v>221</v>
       </c>
       <c r="C46" s="57"/>
-      <c r="D46" s="59" t="s">
+      <c r="D46" s="78" t="s">
         <v>222</v>
       </c>
       <c r="E46" s="56"/>
@@ -3249,28 +3249,28 @@
       <c r="A47" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B47" s="60" t="s">
+      <c r="B47" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="64" t="s">
+      <c r="C47" s="82"/>
+      <c r="D47" s="80" t="s">
         <v>233</v>
       </c>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="61"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="82"/>
       <c r="K47" s="48" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
-      <c r="B48" s="62"/>
+      <c r="B48" s="76"/>
       <c r="C48" s="63"/>
-      <c r="D48" s="66"/>
+      <c r="D48" s="77"/>
       <c r="E48" s="63"/>
       <c r="F48" s="63"/>
       <c r="G48" s="63"/>
@@ -3281,9 +3281,9 @@
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
-      <c r="B49" s="62"/>
+      <c r="B49" s="76"/>
       <c r="C49" s="63"/>
-      <c r="D49" s="66"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="63"/>
       <c r="F49" s="63"/>
       <c r="G49" s="63"/>
@@ -3294,9 +3294,9 @@
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
-      <c r="B50" s="62"/>
+      <c r="B50" s="76"/>
       <c r="C50" s="63"/>
-      <c r="D50" s="66"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="63"/>
       <c r="F50" s="63"/>
       <c r="G50" s="63"/>
@@ -3307,9 +3307,9 @@
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
-      <c r="B51" s="62"/>
+      <c r="B51" s="76"/>
       <c r="C51" s="63"/>
-      <c r="D51" s="66"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="63"/>
       <c r="F51" s="63"/>
       <c r="G51" s="63"/>
@@ -3320,9 +3320,9 @@
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
-      <c r="B52" s="62"/>
+      <c r="B52" s="76"/>
       <c r="C52" s="63"/>
-      <c r="D52" s="66"/>
+      <c r="D52" s="77"/>
       <c r="E52" s="63"/>
       <c r="F52" s="63"/>
       <c r="G52" s="63"/>
@@ -4297,51 +4297,11 @@
     <row r="1016" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="A16:K17"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A29:K30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D45:J45"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D46:J46"/>
     <mergeCell ref="D47:J47"/>
@@ -4358,15 +4318,56 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A29:K30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A16:K17"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C10:J10"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="47" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4377,9 +4378,9 @@
   </sheetPr>
   <dimension ref="A1:AC1021"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4394,19 +4395,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="97" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2"/>
@@ -4420,11 +4421,11 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="85"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="89"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="98"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4468,13 +4469,13 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="92"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4504,7 +4505,7 @@
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="92" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -4528,7 +4529,7 @@
       <c r="A7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="20" t="s">
         <v>18</v>
       </c>
@@ -4550,7 +4551,7 @@
       <c r="A8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="20" t="s">
         <v>22</v>
       </c>
@@ -4572,7 +4573,7 @@
       <c r="A9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="95"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
@@ -4594,7 +4595,7 @@
       <c r="A10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="87" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -4618,7 +4619,7 @@
       <c r="A11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="20" t="s">
         <v>32</v>
       </c>
@@ -4640,7 +4641,7 @@
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="20" t="s">
         <v>35</v>
       </c>
@@ -4662,7 +4663,7 @@
       <c r="A13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="94"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="20" t="s">
         <v>38</v>
       </c>
@@ -4684,7 +4685,7 @@
       <c r="A14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="94"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="20" t="s">
         <v>41</v>
       </c>
@@ -4706,7 +4707,7 @@
       <c r="A15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="94"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="20" t="s">
         <v>44</v>
       </c>
@@ -4728,7 +4729,7 @@
       <c r="A16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="94"/>
+      <c r="B16" s="88"/>
       <c r="C16" s="20" t="s">
         <v>47</v>
       </c>
@@ -4750,7 +4751,7 @@
       <c r="A17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="20" t="s">
         <v>50</v>
       </c>
@@ -4772,7 +4773,7 @@
       <c r="A18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="94"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="20" t="s">
         <v>53</v>
       </c>
@@ -4794,7 +4795,7 @@
       <c r="A19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="20" t="s">
         <v>56</v>
       </c>
@@ -4816,7 +4817,7 @@
       <c r="A20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="96" t="s">
+      <c r="B20" s="87" t="s">
         <v>60</v>
       </c>
       <c r="C20" s="20" t="s">
@@ -4840,7 +4841,7 @@
       <c r="A21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="94"/>
+      <c r="B21" s="88"/>
       <c r="C21" s="20" t="s">
         <v>64</v>
       </c>
@@ -4862,7 +4863,7 @@
       <c r="A22" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="94"/>
+      <c r="B22" s="88"/>
       <c r="C22" s="20" t="s">
         <v>68</v>
       </c>
@@ -4884,7 +4885,7 @@
       <c r="A23" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="94"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="20" t="s">
         <v>71</v>
       </c>
@@ -4906,7 +4907,7 @@
       <c r="A24" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="94"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="20" t="s">
         <v>75</v>
       </c>
@@ -4928,7 +4929,7 @@
       <c r="A25" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="94"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="20" t="s">
         <v>79</v>
       </c>
@@ -4950,7 +4951,7 @@
       <c r="A26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="94"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="20" t="s">
         <v>82</v>
       </c>
@@ -4972,7 +4973,7 @@
       <c r="A27" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="94"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="20" t="s">
         <v>86</v>
       </c>
@@ -4994,7 +4995,7 @@
       <c r="A28" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="94"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="20" t="s">
         <v>90</v>
       </c>
@@ -5016,7 +5017,7 @@
       <c r="A29" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="94"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="20" t="s">
         <v>93</v>
       </c>
@@ -5038,7 +5039,7 @@
       <c r="A30" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="94"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="20" t="s">
         <v>98</v>
       </c>
@@ -5060,7 +5061,7 @@
       <c r="A31" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="94"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="20" t="s">
         <v>102</v>
       </c>
@@ -5082,7 +5083,7 @@
       <c r="A32" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="94"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="20" t="s">
         <v>106</v>
       </c>
@@ -5104,7 +5105,7 @@
       <c r="A33" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="94"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="20" t="s">
         <v>109</v>
       </c>
@@ -5126,7 +5127,7 @@
       <c r="A34" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="95"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="20" t="s">
         <v>112</v>
       </c>
@@ -5148,7 +5149,7 @@
       <c r="A35" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="96" t="s">
+      <c r="B35" s="87" t="s">
         <v>115</v>
       </c>
       <c r="C35" s="20" t="s">
@@ -5172,7 +5173,7 @@
       <c r="A36" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="94"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="20" t="s">
         <v>38</v>
       </c>
@@ -5194,7 +5195,7 @@
       <c r="A37" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="94"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="20" t="s">
         <v>123</v>
       </c>
@@ -5216,7 +5217,7 @@
       <c r="A38" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="95"/>
+      <c r="B38" s="89"/>
       <c r="C38" s="20" t="s">
         <v>127</v>
       </c>
@@ -5238,7 +5239,7 @@
       <c r="A39" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="96" t="s">
+      <c r="B39" s="87" t="s">
         <v>131</v>
       </c>
       <c r="C39" s="41" t="s">
@@ -5262,7 +5263,7 @@
       <c r="A40" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B40" s="95"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="41" t="s">
         <v>141</v>
       </c>
@@ -5284,7 +5285,7 @@
       <c r="A41" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="96" t="s">
+      <c r="B41" s="87" t="s">
         <v>146</v>
       </c>
       <c r="C41" s="20" t="s">
@@ -5308,7 +5309,7 @@
       <c r="A42" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="94"/>
+      <c r="B42" s="88"/>
       <c r="C42" s="20" t="s">
         <v>151</v>
       </c>
@@ -5330,7 +5331,7 @@
       <c r="A43" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="94"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="20" t="s">
         <v>156</v>
       </c>
@@ -5352,7 +5353,7 @@
       <c r="A44" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="94"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="20" t="s">
         <v>161</v>
       </c>
@@ -5374,7 +5375,7 @@
       <c r="A45" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="94"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="20" t="s">
         <v>167</v>
       </c>
@@ -5396,7 +5397,7 @@
       <c r="A46" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="94"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="20" t="s">
         <v>171</v>
       </c>
@@ -5418,7 +5419,7 @@
       <c r="A47" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="94"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="20" t="s">
         <v>175</v>
       </c>
@@ -5440,7 +5441,7 @@
       <c r="A48" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="94"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="20" t="s">
         <v>178</v>
       </c>
@@ -5462,7 +5463,7 @@
       <c r="A49" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B49" s="94"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="20" t="s">
         <v>184</v>
       </c>
@@ -5484,7 +5485,7 @@
       <c r="A50" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="94"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="20" t="s">
         <v>191</v>
       </c>
@@ -5506,7 +5507,7 @@
       <c r="A51" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="94"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="20" t="s">
         <v>197</v>
       </c>
@@ -5528,7 +5529,7 @@
       <c r="A52" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="95"/>
+      <c r="B52" s="89"/>
       <c r="C52" s="20" t="s">
         <v>204</v>
       </c>
@@ -5550,7 +5551,7 @@
       <c r="A53" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="87" t="s">
         <v>211</v>
       </c>
       <c r="C53" s="41" t="s">
@@ -5574,7 +5575,7 @@
       <c r="A54" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B54" s="94"/>
+      <c r="B54" s="88"/>
       <c r="C54" s="20" t="s">
         <v>224</v>
       </c>
@@ -5596,7 +5597,7 @@
       <c r="A55" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B55" s="94"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="20" t="s">
         <v>228</v>
       </c>
@@ -5618,7 +5619,7 @@
       <c r="A56" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B56" s="94"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="20" t="s">
         <v>197</v>
       </c>
@@ -5640,7 +5641,7 @@
       <c r="A57" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="95"/>
+      <c r="B57" s="89"/>
       <c r="C57" s="20" t="s">
         <v>235</v>
       </c>
@@ -5675,13 +5676,13 @@
       <c r="N58" s="18"/>
     </row>
     <row r="59" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="97" t="s">
+      <c r="A59" s="84" t="s">
         <v>237</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="92"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="86"/>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
       <c r="H59" s="18"/>
@@ -5696,7 +5697,7 @@
       <c r="A60" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="92" t="s">
         <v>238</v>
       </c>
       <c r="C60" s="12" t="s">
@@ -5720,7 +5721,7 @@
       <c r="A61" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B61" s="94"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="20" t="s">
         <v>241</v>
       </c>
@@ -5742,7 +5743,7 @@
       <c r="A62" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="94"/>
+      <c r="B62" s="88"/>
       <c r="C62" s="20" t="s">
         <v>243</v>
       </c>
@@ -5764,7 +5765,7 @@
       <c r="A63" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="94"/>
+      <c r="B63" s="88"/>
       <c r="C63" s="20" t="s">
         <v>245</v>
       </c>
@@ -5786,7 +5787,7 @@
       <c r="A64" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B64" s="94"/>
+      <c r="B64" s="88"/>
       <c r="C64" s="20" t="s">
         <v>247</v>
       </c>
@@ -5808,7 +5809,7 @@
       <c r="A65" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B65" s="94"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="20" t="s">
         <v>249</v>
       </c>
@@ -5830,7 +5831,7 @@
       <c r="A66" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B66" s="94"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="20" t="s">
         <v>251</v>
       </c>
@@ -5852,7 +5853,7 @@
       <c r="A67" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="94"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="20" t="s">
         <v>253</v>
       </c>
@@ -5874,7 +5875,7 @@
       <c r="A68" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="94"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="20" t="s">
         <v>255</v>
       </c>
@@ -5896,7 +5897,7 @@
       <c r="A69" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="94"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="20" t="s">
         <v>257</v>
       </c>
@@ -5918,7 +5919,7 @@
       <c r="A70" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B70" s="94"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="20" t="s">
         <v>259</v>
       </c>
@@ -5940,7 +5941,7 @@
       <c r="A71" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="94"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="20" t="s">
         <v>261</v>
       </c>
@@ -5962,7 +5963,7 @@
       <c r="A72" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B72" s="95"/>
+      <c r="B72" s="89"/>
       <c r="C72" s="20" t="s">
         <v>263</v>
       </c>
@@ -5984,7 +5985,7 @@
       <c r="A73" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="96" t="s">
+      <c r="B73" s="87" t="s">
         <v>265</v>
       </c>
       <c r="C73" s="20" t="s">
@@ -6008,7 +6009,7 @@
       <c r="A74" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B74" s="94"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="20" t="s">
         <v>268</v>
       </c>
@@ -6030,7 +6031,7 @@
       <c r="A75" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B75" s="94"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="20" t="s">
         <v>270</v>
       </c>
@@ -6052,7 +6053,7 @@
       <c r="A76" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B76" s="94"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="20" t="s">
         <v>272</v>
       </c>
@@ -6074,7 +6075,7 @@
       <c r="A77" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="94"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="20" t="s">
         <v>274</v>
       </c>
@@ -6096,7 +6097,7 @@
       <c r="A78" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="94"/>
+      <c r="B78" s="88"/>
       <c r="C78" s="20" t="s">
         <v>276</v>
       </c>
@@ -6118,7 +6119,7 @@
       <c r="A79" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="94"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="20" t="s">
         <v>278</v>
       </c>
@@ -6140,7 +6141,7 @@
       <c r="A80" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="94"/>
+      <c r="B80" s="88"/>
       <c r="C80" s="20" t="s">
         <v>280</v>
       </c>
@@ -6162,7 +6163,7 @@
       <c r="A81" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B81" s="94"/>
+      <c r="B81" s="88"/>
       <c r="C81" s="20" t="s">
         <v>282</v>
       </c>
@@ -6184,7 +6185,7 @@
       <c r="A82" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B82" s="94"/>
+      <c r="B82" s="88"/>
       <c r="C82" s="20" t="s">
         <v>284</v>
       </c>
@@ -6206,7 +6207,7 @@
       <c r="A83" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B83" s="95"/>
+      <c r="B83" s="89"/>
       <c r="C83" s="20" t="s">
         <v>286</v>
       </c>
@@ -6228,7 +6229,7 @@
       <c r="A84" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="96" t="s">
+      <c r="B84" s="87" t="s">
         <v>288</v>
       </c>
       <c r="C84" s="20" t="s">
@@ -6252,7 +6253,7 @@
       <c r="A85" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B85" s="94"/>
+      <c r="B85" s="88"/>
       <c r="C85" s="20" t="s">
         <v>268</v>
       </c>
@@ -6274,7 +6275,7 @@
       <c r="A86" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="94"/>
+      <c r="B86" s="88"/>
       <c r="C86" s="20" t="s">
         <v>270</v>
       </c>
@@ -6296,7 +6297,7 @@
       <c r="A87" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B87" s="94"/>
+      <c r="B87" s="88"/>
       <c r="C87" s="20" t="s">
         <v>272</v>
       </c>
@@ -6318,7 +6319,7 @@
       <c r="A88" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="94"/>
+      <c r="B88" s="88"/>
       <c r="C88" s="20" t="s">
         <v>293</v>
       </c>
@@ -6340,7 +6341,7 @@
       <c r="A89" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="94"/>
+      <c r="B89" s="88"/>
       <c r="C89" s="20" t="s">
         <v>295</v>
       </c>
@@ -6362,7 +6363,7 @@
       <c r="A90" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="94"/>
+      <c r="B90" s="88"/>
       <c r="C90" s="20" t="s">
         <v>297</v>
       </c>
@@ -6384,7 +6385,7 @@
       <c r="A91" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="94"/>
+      <c r="B91" s="88"/>
       <c r="C91" s="20" t="s">
         <v>299</v>
       </c>
@@ -6406,7 +6407,7 @@
       <c r="A92" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="94"/>
+      <c r="B92" s="88"/>
       <c r="C92" s="20" t="s">
         <v>301</v>
       </c>
@@ -6428,7 +6429,7 @@
       <c r="A93" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B93" s="94"/>
+      <c r="B93" s="88"/>
       <c r="C93" s="20" t="s">
         <v>303</v>
       </c>
@@ -6450,7 +6451,7 @@
       <c r="A94" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="B94" s="94"/>
+      <c r="B94" s="88"/>
       <c r="C94" s="20" t="s">
         <v>278</v>
       </c>
@@ -6472,7 +6473,7 @@
       <c r="A95" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B95" s="94"/>
+      <c r="B95" s="88"/>
       <c r="C95" s="20" t="s">
         <v>280</v>
       </c>
@@ -6494,7 +6495,7 @@
       <c r="A96" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B96" s="94"/>
+      <c r="B96" s="88"/>
       <c r="C96" s="20" t="s">
         <v>307</v>
       </c>
@@ -6516,7 +6517,7 @@
       <c r="A97" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B97" s="94"/>
+      <c r="B97" s="88"/>
       <c r="C97" s="20" t="s">
         <v>309</v>
       </c>
@@ -6538,7 +6539,7 @@
       <c r="A98" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B98" s="94"/>
+      <c r="B98" s="88"/>
       <c r="C98" s="20" t="s">
         <v>284</v>
       </c>
@@ -6560,7 +6561,7 @@
       <c r="A99" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B99" s="95"/>
+      <c r="B99" s="89"/>
       <c r="C99" s="50" t="s">
         <v>312</v>
       </c>
@@ -6582,7 +6583,7 @@
       <c r="A100" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="B100" s="96" t="s">
+      <c r="B100" s="87" t="s">
         <v>314</v>
       </c>
       <c r="C100" s="20" t="s">
@@ -6606,7 +6607,7 @@
       <c r="A101" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="94"/>
+      <c r="B101" s="88"/>
       <c r="C101" s="20" t="s">
         <v>317</v>
       </c>
@@ -6628,7 +6629,7 @@
       <c r="A102" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B102" s="94"/>
+      <c r="B102" s="88"/>
       <c r="C102" s="20" t="s">
         <v>319</v>
       </c>
@@ -6650,7 +6651,7 @@
       <c r="A103" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="B103" s="94"/>
+      <c r="B103" s="88"/>
       <c r="C103" s="20" t="s">
         <v>321</v>
       </c>
@@ -6672,7 +6673,7 @@
       <c r="A104" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B104" s="95"/>
+      <c r="B104" s="89"/>
       <c r="C104" s="20" t="s">
         <v>323</v>
       </c>
@@ -6694,7 +6695,7 @@
       <c r="A105" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B105" s="96" t="s">
+      <c r="B105" s="87" t="s">
         <v>325</v>
       </c>
       <c r="C105" s="20" t="s">
@@ -6718,7 +6719,7 @@
       <c r="A106" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B106" s="94"/>
+      <c r="B106" s="88"/>
       <c r="C106" s="20" t="s">
         <v>327</v>
       </c>
@@ -6740,7 +6741,7 @@
       <c r="A107" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="94"/>
+      <c r="B107" s="88"/>
       <c r="C107" s="20" t="s">
         <v>329</v>
       </c>
@@ -6762,7 +6763,7 @@
       <c r="A108" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="B108" s="95"/>
+      <c r="B108" s="89"/>
       <c r="C108" s="20" t="s">
         <v>286</v>
       </c>
@@ -6784,7 +6785,7 @@
       <c r="A109" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="B109" s="96" t="s">
+      <c r="B109" s="87" t="s">
         <v>332</v>
       </c>
       <c r="C109" s="20" t="s">
@@ -6808,7 +6809,7 @@
       <c r="A110" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="B110" s="94"/>
+      <c r="B110" s="88"/>
       <c r="C110" s="20" t="s">
         <v>327</v>
       </c>
@@ -6830,7 +6831,7 @@
       <c r="A111" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B111" s="94"/>
+      <c r="B111" s="88"/>
       <c r="C111" s="20" t="s">
         <v>329</v>
       </c>
@@ -6852,7 +6853,7 @@
       <c r="A112" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="B112" s="95"/>
+      <c r="B112" s="89"/>
       <c r="C112" s="20" t="s">
         <v>286</v>
       </c>
@@ -6887,13 +6888,13 @@
       <c r="N113" s="18"/>
     </row>
     <row r="114" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="98" t="s">
+      <c r="A114" s="90" t="s">
         <v>338</v>
       </c>
-      <c r="B114" s="91"/>
-      <c r="C114" s="91"/>
-      <c r="D114" s="91"/>
-      <c r="E114" s="92"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="86"/>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
@@ -6908,7 +6909,7 @@
       <c r="A115" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B115" s="93" t="s">
+      <c r="B115" s="92" t="s">
         <v>339</v>
       </c>
       <c r="C115" s="12" t="s">
@@ -6932,7 +6933,7 @@
       <c r="A116" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B116" s="94"/>
+      <c r="B116" s="88"/>
       <c r="C116" s="20" t="s">
         <v>342</v>
       </c>
@@ -6954,7 +6955,7 @@
       <c r="A117" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B117" s="94"/>
+      <c r="B117" s="88"/>
       <c r="C117" s="50" t="s">
         <v>344</v>
       </c>
@@ -6976,7 +6977,7 @@
       <c r="A118" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="94"/>
+      <c r="B118" s="88"/>
       <c r="C118" s="20" t="s">
         <v>346</v>
       </c>
@@ -6998,7 +6999,7 @@
       <c r="A119" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="94"/>
+      <c r="B119" s="88"/>
       <c r="C119" s="20" t="s">
         <v>348</v>
       </c>
@@ -7020,7 +7021,7 @@
       <c r="A120" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B120" s="94"/>
+      <c r="B120" s="88"/>
       <c r="C120" s="20" t="s">
         <v>350</v>
       </c>
@@ -7042,7 +7043,7 @@
       <c r="A121" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B121" s="94"/>
+      <c r="B121" s="88"/>
       <c r="C121" s="20" t="s">
         <v>352</v>
       </c>
@@ -7064,7 +7065,7 @@
       <c r="A122" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B122" s="94"/>
+      <c r="B122" s="88"/>
       <c r="C122" s="20" t="s">
         <v>354</v>
       </c>
@@ -7086,7 +7087,7 @@
       <c r="A123" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B123" s="94"/>
+      <c r="B123" s="88"/>
       <c r="C123" s="20" t="s">
         <v>356</v>
       </c>
@@ -7108,7 +7109,7 @@
       <c r="A124" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B124" s="95"/>
+      <c r="B124" s="89"/>
       <c r="C124" s="20" t="s">
         <v>358</v>
       </c>
@@ -7130,7 +7131,7 @@
       <c r="A125" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B125" s="96" t="s">
+      <c r="B125" s="87" t="s">
         <v>360</v>
       </c>
       <c r="C125" s="20" t="s">
@@ -7154,7 +7155,7 @@
       <c r="A126" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B126" s="94"/>
+      <c r="B126" s="88"/>
       <c r="C126" s="20" t="s">
         <v>363</v>
       </c>
@@ -7176,7 +7177,7 @@
       <c r="A127" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B127" s="94"/>
+      <c r="B127" s="88"/>
       <c r="C127" s="20" t="s">
         <v>365</v>
       </c>
@@ -7198,7 +7199,7 @@
       <c r="A128" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B128" s="94"/>
+      <c r="B128" s="88"/>
       <c r="C128" s="20" t="s">
         <v>367</v>
       </c>
@@ -7220,7 +7221,7 @@
       <c r="A129" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B129" s="94"/>
+      <c r="B129" s="88"/>
       <c r="C129" s="20" t="s">
         <v>369</v>
       </c>
@@ -7242,7 +7243,7 @@
       <c r="A130" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B130" s="94"/>
+      <c r="B130" s="88"/>
       <c r="C130" s="20" t="s">
         <v>371</v>
       </c>
@@ -7264,7 +7265,7 @@
       <c r="A131" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B131" s="94"/>
+      <c r="B131" s="88"/>
       <c r="C131" s="20" t="s">
         <v>373</v>
       </c>
@@ -7286,7 +7287,7 @@
       <c r="A132" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B132" s="95"/>
+      <c r="B132" s="89"/>
       <c r="C132" s="20" t="s">
         <v>375</v>
       </c>
@@ -7308,7 +7309,7 @@
       <c r="A133" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B133" s="96" t="s">
+      <c r="B133" s="87" t="s">
         <v>377</v>
       </c>
       <c r="C133" s="20" t="s">
@@ -7332,7 +7333,7 @@
       <c r="A134" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B134" s="94"/>
+      <c r="B134" s="88"/>
       <c r="C134" s="20" t="s">
         <v>380</v>
       </c>
@@ -7354,7 +7355,7 @@
       <c r="A135" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B135" s="94"/>
+      <c r="B135" s="88"/>
       <c r="C135" s="20" t="s">
         <v>382</v>
       </c>
@@ -7376,7 +7377,7 @@
       <c r="A136" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B136" s="94"/>
+      <c r="B136" s="88"/>
       <c r="C136" s="20" t="s">
         <v>384</v>
       </c>
@@ -7398,7 +7399,7 @@
       <c r="A137" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B137" s="94"/>
+      <c r="B137" s="88"/>
       <c r="C137" s="20" t="s">
         <v>386</v>
       </c>
@@ -7420,7 +7421,7 @@
       <c r="A138" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B138" s="94"/>
+      <c r="B138" s="88"/>
       <c r="C138" s="20" t="s">
         <v>388</v>
       </c>
@@ -7442,7 +7443,7 @@
       <c r="A139" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B139" s="94"/>
+      <c r="B139" s="88"/>
       <c r="C139" s="20" t="s">
         <v>390</v>
       </c>
@@ -7464,7 +7465,7 @@
       <c r="A140" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B140" s="94"/>
+      <c r="B140" s="88"/>
       <c r="C140" s="20" t="s">
         <v>392</v>
       </c>
@@ -7486,7 +7487,7 @@
       <c r="A141" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B141" s="94"/>
+      <c r="B141" s="88"/>
       <c r="C141" s="20" t="s">
         <v>394</v>
       </c>
@@ -7508,7 +7509,7 @@
       <c r="A142" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B142" s="94"/>
+      <c r="B142" s="88"/>
       <c r="C142" s="20" t="s">
         <v>396</v>
       </c>
@@ -7530,7 +7531,7 @@
       <c r="A143" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B143" s="94"/>
+      <c r="B143" s="88"/>
       <c r="C143" s="20" t="s">
         <v>398</v>
       </c>
@@ -7552,7 +7553,7 @@
       <c r="A144" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="B144" s="87"/>
+      <c r="B144" s="93"/>
       <c r="C144" s="52" t="s">
         <v>400</v>
       </c>
@@ -8449,11 +8450,11 @@
     <row r="1021" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A59:E59"/>
-    <mergeCell ref="B109:B112"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="B115:B124"/>
     <mergeCell ref="B125:B132"/>
     <mergeCell ref="B133:B144"/>
@@ -8463,16 +8464,16 @@
     <mergeCell ref="B84:B99"/>
     <mergeCell ref="B100:B104"/>
     <mergeCell ref="B105:B108"/>
+    <mergeCell ref="A59:E59"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B19"/>
     <mergeCell ref="B20:B34"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B52"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/작업완료포트폴리오/2. 요구사항정의서/[6기]1조_전자결재페이지_요구사항정의서_V1.0.xlsx
+++ b/작업완료포트폴리오/2. 요구사항정의서/[6기]1조_전자결재페이지_요구사항정의서_V1.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KOSMO-23\Documents\GitHub\-6th-_cosmo_1th_group\작업완료포트폴리오\2. 요구사항정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B31F80-C0A4-4A12-8E16-F33FDA7C7CD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 이력 및 요약" sheetId="1" r:id="rId1"/>
@@ -18,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'문서 이력 및 요약'!$A$1:$K$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'요구 상세 정의서'!$A$1:$E$144</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'요구 상세 정의서'!$1:$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -35,9 +37,6 @@
     <t>번호</t>
   </si>
   <si>
-    <t>전자결재페이지 요구사항 정의서</t>
-  </si>
-  <si>
     <t>페이지명</t>
   </si>
   <si>
@@ -204,9 +203,6 @@
   </si>
   <si>
     <t>AM-LOG-REG-10</t>
-  </si>
-  <si>
-    <t>문서 요약</t>
   </si>
   <si>
     <t>15</t>
@@ -1258,17 +1254,102 @@
   </si>
   <si>
     <t>AM-NOB-MAI-DET-12</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요약</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전자결재페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요구사항</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정의서</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,6 +1464,36 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1416,7 +1527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1680,33 +1791,11 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1819,8 +1908,68 @@
     </border>
     <border>
       <left/>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
@@ -1831,7 +1980,9 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
@@ -1839,52 +1990,7 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1897,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1937,263 +2043,323 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2409,14 +2575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView view="pageBreakPreview" zoomScale="53" zoomScaleNormal="55" zoomScaleSheetLayoutView="53" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2429,20 +2592,20 @@
     <col min="12" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="72"/>
+    <row r="1" spans="1:26" ht="36.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="112"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -2460,17 +2623,17 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="68"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -2489,847 +2652,865 @@
     </row>
     <row r="3" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
       <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
+      <c r="A4" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="93"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="68"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="97"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
+      <c r="C6" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="110"/>
       <c r="K6" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="25">
         <v>43712</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="21" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="21"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="58"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="28"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:26" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="28"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="21"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="21"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="21"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="105"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="32"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="30"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
+      <c r="A16" s="75" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="68"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="102"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
+      <c r="B18" s="116" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
       <c r="K18" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="34">
+      <c r="A19" s="32">
         <v>1</v>
       </c>
       <c r="B19" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="21" t="s">
-        <v>19</v>
+        <v>71</v>
+      </c>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
+      <c r="A20" s="33">
         <v>2</v>
       </c>
-      <c r="B20" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="21" t="s">
-        <v>19</v>
+      <c r="B20" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34">
+      <c r="A21" s="32">
         <v>3</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="21" t="s">
-        <v>19</v>
+        <v>82</v>
+      </c>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35">
+      <c r="A22" s="33">
         <v>4</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="21" t="s">
-        <v>19</v>
+        <v>86</v>
+      </c>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="32">
         <v>5</v>
       </c>
       <c r="B23" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="33">
+        <v>6</v>
+      </c>
+      <c r="B24" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35">
-        <v>6</v>
-      </c>
-      <c r="B24" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="21" t="s">
-        <v>19</v>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34">
+      <c r="A25" s="32">
         <v>7</v>
       </c>
       <c r="B25" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="21" t="s">
-        <v>19</v>
+        <v>98</v>
+      </c>
+      <c r="C25" s="106"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35">
+      <c r="A26" s="33">
         <v>8</v>
       </c>
       <c r="B26" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="21" t="s">
-        <v>19</v>
+        <v>102</v>
+      </c>
+      <c r="C26" s="106"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="20" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="21"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
     </row>
     <row r="29" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="66"/>
+      <c r="A29" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="94"/>
     </row>
     <row r="30" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="67"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="68"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="97"/>
     </row>
     <row r="31" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="74" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="40" t="s">
-        <v>14</v>
+        <v>120</v>
+      </c>
+      <c r="B31" s="80" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="81"/>
+      <c r="D31" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="37" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="81"/>
+      <c r="D32" s="77" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="74" t="s">
-        <v>134</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="78" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="40" t="s">
-        <v>19</v>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="81"/>
+      <c r="D33" s="77" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="57"/>
-      <c r="D33" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="40" t="s">
-        <v>19</v>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="57"/>
-      <c r="D34" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="40" t="s">
-        <v>19</v>
+      <c r="A34" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="80" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="81"/>
+      <c r="D34" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="C35" s="57"/>
-      <c r="D35" s="78" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="56"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="40" t="s">
-        <v>19</v>
+        <v>151</v>
+      </c>
+      <c r="B35" s="80" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="81"/>
+      <c r="D35" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="39" t="s">
-        <v>159</v>
-      </c>
-      <c r="B36" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="81"/>
+      <c r="D36" s="77" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="78" t="s">
-        <v>164</v>
-      </c>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="40" t="s">
-        <v>19</v>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="78"/>
+      <c r="I36" s="78"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="75" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="57"/>
-      <c r="D37" s="79" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="44" t="s">
-        <v>19</v>
+      <c r="A37" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="88"/>
+      <c r="D37" s="84" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="41" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B38" s="87" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="88"/>
+      <c r="D38" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="40" t="s">
-        <v>19</v>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="B39" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="79" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="44" t="s">
-        <v>19</v>
+      <c r="C39" s="88"/>
+      <c r="D39" s="84" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="41" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="B40" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="B40" s="74" t="s">
+      <c r="C40" s="81"/>
+      <c r="D40" s="77" t="s">
         <v>192</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="40" t="s">
-        <v>19</v>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="80" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="74" t="s">
+      <c r="C41" s="81"/>
+      <c r="D41" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="C41" s="57"/>
-      <c r="D41" s="78" t="s">
-        <v>200</v>
-      </c>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="40" t="s">
-        <v>19</v>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="78"/>
+      <c r="H41" s="78"/>
+      <c r="I41" s="78"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="74" t="s">
-        <v>203</v>
-      </c>
-      <c r="C42" s="57"/>
-      <c r="D42" s="78" t="s">
-        <v>206</v>
-      </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="40" t="s">
-        <v>19</v>
+      <c r="C42" s="81"/>
+      <c r="D42" s="77" t="s">
+        <v>204</v>
+      </c>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B43" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="81"/>
+      <c r="D43" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="B43" s="74" t="s">
-        <v>208</v>
-      </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="78" t="s">
-        <v>209</v>
-      </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="40" t="s">
-        <v>19</v>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="78"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="80" t="s">
         <v>213</v>
       </c>
-      <c r="B44" s="74" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="40" t="s">
-        <v>19</v>
+      <c r="C44" s="81"/>
+      <c r="D44" s="77" t="s">
+        <v>214</v>
+      </c>
+      <c r="E44" s="78"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="78"/>
+      <c r="H44" s="78"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="80" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="81"/>
+      <c r="D45" s="77" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" s="57"/>
-      <c r="D45" s="78" t="s">
-        <v>219</v>
-      </c>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="40" t="s">
-        <v>19</v>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="78"/>
+      <c r="I45" s="78"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="37" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B46" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="81"/>
+      <c r="D46" s="77" t="s">
         <v>220</v>
       </c>
-      <c r="B46" s="74" t="s">
-        <v>221</v>
-      </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>230</v>
-      </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="80" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="81"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="63"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="31"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="78"/>
+      <c r="I46" s="78"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="C47" s="83"/>
+      <c r="D47" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
+      <c r="G47" s="90"/>
+      <c r="H47" s="90"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="91"/>
+      <c r="K47" s="45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="29"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="29"/>
     </row>
     <row r="49" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="31"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="29"/>
     </row>
     <row r="50" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="31"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="29"/>
     </row>
     <row r="51" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="63"/>
-      <c r="F51" s="63"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="31"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="29"/>
     </row>
     <row r="52" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="31"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="55"/>
+      <c r="D52" s="56"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="29"/>
     </row>
     <row r="53" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4297,11 +4478,51 @@
     <row r="1016" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="A4:K5"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B19:J19"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="A16:K17"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="A29:K30"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="D50:J50"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D46:J46"/>
     <mergeCell ref="D47:J47"/>
@@ -4318,51 +4539,11 @@
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="A29:K30"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="A16:K17"/>
-    <mergeCell ref="A4:K5"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B19:J19"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D45:J45"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4372,15 +4553,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AC1021"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E124"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4395,20 +4576,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="D1" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="97" t="s">
-        <v>5</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -4421,11 +4602,11 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="95"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="98"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="65"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -4469,13 +4650,13 @@
       <c r="N4" s="7"/>
     </row>
     <row r="5" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86"/>
+      <c r="A5" s="74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -4503,3073 +4684,3073 @@
     </row>
     <row r="6" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
     </row>
     <row r="7" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="E8" s="23"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="E9" s="23"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="B10" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="87" t="s">
+      <c r="C10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="23"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="B11" s="67"/>
+      <c r="C11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="E11" s="23"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-    </row>
-    <row r="12" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="19" t="s">
+      <c r="B12" s="67"/>
+      <c r="C12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="23"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="B13" s="67"/>
+      <c r="C13" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="E13" s="23"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="19" t="s">
+      <c r="B14" s="67"/>
+      <c r="C14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="E14" s="23"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="67"/>
+      <c r="C15" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="23"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" spans="1:29" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+    </row>
+    <row r="17" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="B17" s="67"/>
+      <c r="C17" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+    </row>
+    <row r="18" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="19" t="s">
+      <c r="B18" s="67"/>
+      <c r="C18" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+    </row>
+    <row r="19" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="E19" s="23"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+      <c r="B20" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="D20" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="E20" s="23"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="B21" s="67"/>
+      <c r="C21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
+      <c r="D21" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19" t="s">
+      <c r="B22" s="67"/>
+      <c r="C22" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="20" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="D23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="22" t="s">
+      <c r="E23" s="23"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="B24" s="67"/>
+      <c r="C24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="E24" s="23"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="88"/>
-      <c r="C25" s="20" t="s">
+      <c r="E25" s="23"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="24"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+      <c r="D26" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="24"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
+      <c r="B27" s="67"/>
+      <c r="C27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="B27" s="88"/>
-      <c r="C27" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="23"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
+      <c r="B28" s="67"/>
+      <c r="C28" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="20" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-    </row>
-    <row r="29" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="20" t="s">
+      <c r="D29" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
+      <c r="B31" s="67"/>
+      <c r="C31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="22" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="19" t="s">
+      <c r="B32" s="67"/>
+      <c r="C32" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="20" t="s">
+      <c r="E32" s="23"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="B33" s="67"/>
+      <c r="C33" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="19" t="s">
+      <c r="D33" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="88"/>
-      <c r="C33" s="20" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="19" t="s">
+      <c r="D34" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="20" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="B35" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="D35" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="22" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+    </row>
+    <row r="36" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="24"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="19" t="s">
+      <c r="B36" s="67"/>
+      <c r="C36" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B36" s="88"/>
-      <c r="C36" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="19" t="s">
+      <c r="B37" s="67"/>
+      <c r="C37" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B37" s="88"/>
-      <c r="C37" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="38" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="B38" s="68"/>
+      <c r="C38" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="E38" s="23"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-    </row>
-    <row r="39" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="19" t="s">
+      <c r="B39" s="69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="87" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
+      <c r="D39" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="89"/>
-      <c r="C40" s="41" t="s">
+      <c r="A40" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="68"/>
+      <c r="C40" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="87" t="s">
+      <c r="C41" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D41" s="22" t="s">
+      <c r="E41" s="23"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-    </row>
-    <row r="42" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
+      <c r="B42" s="67"/>
+      <c r="C42" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
     </row>
     <row r="43" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="67"/>
+      <c r="C43" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="88"/>
-      <c r="C43" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
     </row>
     <row r="44" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="20" t="s">
+      <c r="A44" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="67"/>
+      <c r="C44" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
     </row>
     <row r="45" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B45" s="67"/>
+      <c r="C45" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="88"/>
-      <c r="C45" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="22" t="s">
+      <c r="E45" s="23"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-    </row>
-    <row r="46" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="19" t="s">
+      <c r="B46" s="67"/>
+      <c r="C46" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="88"/>
-      <c r="C46" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="D46" s="22" t="s">
+      <c r="E46" s="23"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-    </row>
-    <row r="47" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="19" t="s">
+      <c r="B47" s="67"/>
+      <c r="C47" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="B47" s="88"/>
-      <c r="C47" s="20" t="s">
+      <c r="E47" s="23"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+    </row>
+    <row r="48" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="B48" s="67"/>
+      <c r="C48" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-    </row>
-    <row r="48" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="19" t="s">
+      <c r="D48" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
     </row>
     <row r="49" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="20" t="s">
+      <c r="A49" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="67"/>
+      <c r="C49" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
     </row>
     <row r="50" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="B50" s="88"/>
-      <c r="C50" s="20" t="s">
+      <c r="D50" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="E50" s="23"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+    </row>
+    <row r="51" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="E50" s="24"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-    </row>
-    <row r="51" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="19" t="s">
+      <c r="B51" s="67"/>
+      <c r="C51" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="88"/>
-      <c r="C51" s="20" t="s">
+      <c r="D51" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
     </row>
     <row r="52" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B52" s="68"/>
+      <c r="C52" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="89"/>
-      <c r="C52" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
+      <c r="D52" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
     </row>
     <row r="53" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="87" t="s">
-        <v>211</v>
-      </c>
-      <c r="C53" s="41" t="s">
+      <c r="D53" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="D53" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
     </row>
     <row r="54" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B54" s="88"/>
-      <c r="C54" s="20" t="s">
+      <c r="A54" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B54" s="67"/>
+      <c r="C54" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D54" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="E54" s="23"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+    </row>
+    <row r="55" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B55" s="67"/>
+      <c r="C55" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-    </row>
-    <row r="55" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="D55" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="B55" s="88"/>
-      <c r="C55" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="45" t="s">
+      <c r="E55" s="23"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+    </row>
+    <row r="56" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B56" s="88"/>
-      <c r="C56" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="45" t="s">
+      <c r="B56" s="67"/>
+      <c r="C56" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="23"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="E56" s="24"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-    </row>
-    <row r="57" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="19" t="s">
+      <c r="B57" s="68"/>
+      <c r="C57" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="89"/>
-      <c r="C57" s="20" t="s">
+      <c r="E57" s="23"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+    </row>
+    <row r="58" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="44"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="D57" s="45" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-    </row>
-    <row r="58" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="47"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-    </row>
-    <row r="59" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="84" t="s">
-        <v>237</v>
-      </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
     </row>
     <row r="60" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+    </row>
+    <row r="61" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="67"/>
+      <c r="C61" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D61" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-    </row>
-    <row r="61" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B61" s="88"/>
-      <c r="C61" s="20" t="s">
+      <c r="E61" s="23"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+    </row>
+    <row r="62" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" s="67"/>
+      <c r="C62" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D62" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="E61" s="24"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-    </row>
-    <row r="62" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="88"/>
-      <c r="C62" s="20" t="s">
+      <c r="E62" s="23"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+    </row>
+    <row r="63" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="67"/>
+      <c r="C63" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D63" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="E62" s="24"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-    </row>
-    <row r="63" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="88"/>
-      <c r="C63" s="20" t="s">
+      <c r="E63" s="23"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="17"/>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+    </row>
+    <row r="64" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="67"/>
+      <c r="C64" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D64" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="E63" s="24"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-    </row>
-    <row r="64" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B64" s="88"/>
-      <c r="C64" s="20" t="s">
+      <c r="E64" s="23"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+    </row>
+    <row r="65" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="67"/>
+      <c r="C65" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="22" t="s">
+      <c r="D65" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="E64" s="24"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-    </row>
-    <row r="65" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="88"/>
-      <c r="C65" s="20" t="s">
+      <c r="E65" s="23"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+    </row>
+    <row r="66" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="67"/>
+      <c r="C66" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="D65" s="22" t="s">
+      <c r="D66" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-    </row>
-    <row r="66" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="20" t="s">
+      <c r="E66" s="23"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+    </row>
+    <row r="67" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B67" s="67"/>
+      <c r="C67" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D67" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="24"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-    </row>
-    <row r="67" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="88"/>
-      <c r="C67" s="20" t="s">
+      <c r="E67" s="23"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+    </row>
+    <row r="68" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68" s="67"/>
+      <c r="C68" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="D67" s="22" t="s">
+      <c r="D68" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="E67" s="24"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-    </row>
-    <row r="68" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="20" t="s">
+      <c r="E68" s="23"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+    </row>
+    <row r="69" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" s="67"/>
+      <c r="C69" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D69" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="E68" s="24"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-    </row>
-    <row r="69" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="20" t="s">
+      <c r="E69" s="23"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="17"/>
+      <c r="L69" s="17"/>
+      <c r="M69" s="17"/>
+      <c r="N69" s="17"/>
+    </row>
+    <row r="70" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="67"/>
+      <c r="C70" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D70" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="E69" s="24"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-    </row>
-    <row r="70" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="88"/>
-      <c r="C70" s="20" t="s">
+      <c r="E70" s="23"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="17"/>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+    </row>
+    <row r="71" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="67"/>
+      <c r="C71" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D71" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E70" s="24"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-    </row>
-    <row r="71" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" s="88"/>
-      <c r="C71" s="20" t="s">
+      <c r="E71" s="23"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+    </row>
+    <row r="72" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="68"/>
+      <c r="C72" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="D71" s="22" t="s">
+      <c r="D72" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="E71" s="24"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-    </row>
-    <row r="72" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B72" s="89"/>
-      <c r="C72" s="20" t="s">
+      <c r="E72" s="23"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="17"/>
+      <c r="L72" s="17"/>
+      <c r="M72" s="17"/>
+      <c r="N72" s="17"/>
+    </row>
+    <row r="73" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="C73" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-    </row>
-    <row r="73" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B73" s="87" t="s">
+      <c r="D73" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="E73" s="23"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="17"/>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B74" s="67"/>
+      <c r="C74" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D74" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="E73" s="24"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-    </row>
-    <row r="74" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="20" t="s">
+      <c r="E74" s="23"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="17"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="17"/>
+    </row>
+    <row r="75" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" s="67"/>
+      <c r="C75" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="22" t="s">
+      <c r="D75" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="E74" s="24"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-    </row>
-    <row r="75" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="88"/>
-      <c r="C75" s="20" t="s">
+      <c r="E75" s="23"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+    </row>
+    <row r="76" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="67"/>
+      <c r="C76" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="D75" s="22" t="s">
+      <c r="D76" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="E75" s="24"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-    </row>
-    <row r="76" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B76" s="88"/>
-      <c r="C76" s="20" t="s">
+      <c r="E76" s="23"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="17"/>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+    </row>
+    <row r="77" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B77" s="67"/>
+      <c r="C77" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="D76" s="22" t="s">
+      <c r="D77" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="E76" s="24"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-    </row>
-    <row r="77" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="88"/>
-      <c r="C77" s="20" t="s">
+      <c r="E77" s="23"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+      <c r="L77" s="17"/>
+      <c r="M77" s="17"/>
+      <c r="N77" s="17"/>
+    </row>
+    <row r="78" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="67"/>
+      <c r="C78" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D78" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E77" s="24"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-    </row>
-    <row r="78" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="20" t="s">
+      <c r="E78" s="23"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+    </row>
+    <row r="79" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="67"/>
+      <c r="C79" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D79" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="E78" s="24"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-    </row>
-    <row r="79" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" s="88"/>
-      <c r="C79" s="20" t="s">
+      <c r="E79" s="23"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+    </row>
+    <row r="80" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="67"/>
+      <c r="C80" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D80" s="21" t="s">
         <v>279</v>
       </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-    </row>
-    <row r="80" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="88"/>
-      <c r="C80" s="20" t="s">
+      <c r="E80" s="23"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="17"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+    </row>
+    <row r="81" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="67"/>
+      <c r="C81" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D81" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="E80" s="24"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-    </row>
-    <row r="81" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="88"/>
-      <c r="C81" s="20" t="s">
+      <c r="E81" s="23"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="67"/>
+      <c r="C82" s="19" t="s">
         <v>282</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D82" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="E81" s="24"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-    </row>
-    <row r="82" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B82" s="88"/>
-      <c r="C82" s="20" t="s">
+      <c r="E82" s="23"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+    </row>
+    <row r="83" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="68"/>
+      <c r="C83" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D83" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E82" s="24"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-    </row>
-    <row r="83" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B83" s="89"/>
-      <c r="C83" s="20" t="s">
+      <c r="E83" s="23"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+    </row>
+    <row r="84" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B84" s="69" t="s">
         <v>286</v>
       </c>
-      <c r="D83" s="22" t="s">
+      <c r="C84" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E83" s="24"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-    </row>
-    <row r="84" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B84" s="87" t="s">
+      <c r="E84" s="23"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+    </row>
+    <row r="85" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B85" s="67"/>
+      <c r="C85" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C84" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="D84" s="22" t="s">
+      <c r="E85" s="23"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+    </row>
+    <row r="86" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" s="67"/>
+      <c r="C86" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E84" s="24"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-    </row>
-    <row r="85" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="88"/>
-      <c r="C85" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D85" s="22" t="s">
+      <c r="E86" s="23"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+    </row>
+    <row r="87" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B87" s="67"/>
+      <c r="C87" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-    </row>
-    <row r="86" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" s="88"/>
-      <c r="C86" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="D86" s="22" t="s">
+      <c r="E87" s="23"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+    </row>
+    <row r="88" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="67"/>
+      <c r="C88" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="E86" s="24"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-    </row>
-    <row r="87" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B87" s="88"/>
-      <c r="C87" s="20" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="22" t="s">
+      <c r="D88" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-    </row>
-    <row r="88" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" s="88"/>
-      <c r="C88" s="20" t="s">
+      <c r="E88" s="23"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+    </row>
+    <row r="89" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="67"/>
+      <c r="C89" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="D88" s="22" t="s">
+      <c r="D89" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="E88" s="24"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-    </row>
-    <row r="89" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B89" s="88"/>
-      <c r="C89" s="20" t="s">
+      <c r="E89" s="23"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+    </row>
+    <row r="90" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="67"/>
+      <c r="C90" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="D89" s="22" t="s">
+      <c r="D90" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="E89" s="24"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-    </row>
-    <row r="90" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="19" t="s">
+      <c r="E90" s="23"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+    </row>
+    <row r="91" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="88"/>
-      <c r="C90" s="20" t="s">
+      <c r="B91" s="67"/>
+      <c r="C91" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="D90" s="22" t="s">
+      <c r="D91" s="21" t="s">
         <v>298</v>
       </c>
-      <c r="E90" s="24"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-    </row>
-    <row r="91" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="88"/>
-      <c r="C91" s="20" t="s">
+      <c r="E91" s="23"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+    </row>
+    <row r="92" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="67"/>
+      <c r="C92" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="D91" s="22" t="s">
+      <c r="D92" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="E91" s="24"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-    </row>
-    <row r="92" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="88"/>
-      <c r="C92" s="20" t="s">
+      <c r="E92" s="23"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+    </row>
+    <row r="93" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" s="67"/>
+      <c r="C93" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="D92" s="22" t="s">
+      <c r="D93" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="E92" s="24"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-    </row>
-    <row r="93" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" s="88"/>
-      <c r="C93" s="20" t="s">
+      <c r="E93" s="23"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="67"/>
+      <c r="C94" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D93" s="22" t="s">
+      <c r="E94" s="23"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+    </row>
+    <row r="95" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="67"/>
+      <c r="C95" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="D95" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E93" s="24"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-    </row>
-    <row r="94" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B94" s="88"/>
-      <c r="C94" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D94" s="22" t="s">
+      <c r="E95" s="23"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+    </row>
+    <row r="96" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" s="67"/>
+      <c r="C96" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="E94" s="24"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-    </row>
-    <row r="95" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="B95" s="88"/>
-      <c r="C95" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="D95" s="22" t="s">
+      <c r="D96" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="E95" s="24"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-    </row>
-    <row r="96" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="B96" s="88"/>
-      <c r="C96" s="20" t="s">
+      <c r="E96" s="23"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+    </row>
+    <row r="97" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B97" s="67"/>
+      <c r="C97" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="D96" s="22" t="s">
+      <c r="D97" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="E96" s="24"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-    </row>
-    <row r="97" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" s="88"/>
-      <c r="C97" s="20" t="s">
+      <c r="E97" s="23"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+    </row>
+    <row r="98" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" s="67"/>
+      <c r="C98" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D98" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="D97" s="22" t="s">
+      <c r="E98" s="23"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+    </row>
+    <row r="99" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B99" s="68"/>
+      <c r="C99" s="47" t="s">
         <v>310</v>
       </c>
-      <c r="E97" s="24"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-    </row>
-    <row r="98" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B98" s="88"/>
-      <c r="C98" s="20" t="s">
+      <c r="D99" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E99" s="23"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+    </row>
+    <row r="100" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="C100" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="E100" s="23"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+    </row>
+    <row r="101" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B101" s="67"/>
+      <c r="C101" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="E101" s="23"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+    </row>
+    <row r="102" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B102" s="67"/>
+      <c r="C102" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="E102" s="23"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+    </row>
+    <row r="103" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" s="67"/>
+      <c r="C103" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E103" s="23"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+    </row>
+    <row r="104" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" s="68"/>
+      <c r="C104" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" s="23"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+    </row>
+    <row r="105" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B105" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E105" s="23"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+    </row>
+    <row r="106" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" s="67"/>
+      <c r="C106" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="E106" s="23"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+    </row>
+    <row r="107" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="B107" s="67"/>
+      <c r="C107" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="E107" s="23"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+    </row>
+    <row r="108" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B108" s="68"/>
+      <c r="C108" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="D98" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="E98" s="24"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-    </row>
-    <row r="99" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="89"/>
-      <c r="C99" s="50" t="s">
-        <v>312</v>
-      </c>
-      <c r="D99" s="22" t="s">
+      <c r="D108" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E108" s="23"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+    </row>
+    <row r="109" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="B109" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="C109" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-    </row>
-    <row r="100" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="B100" s="87" t="s">
-        <v>314</v>
-      </c>
-      <c r="C100" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D100" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-    </row>
-    <row r="101" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="B101" s="88"/>
-      <c r="C101" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="D101" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="E101" s="24"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-    </row>
-    <row r="102" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="B102" s="88"/>
-      <c r="C102" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-    </row>
-    <row r="103" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="B103" s="88"/>
-      <c r="C103" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>322</v>
-      </c>
-      <c r="E103" s="24"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-    </row>
-    <row r="104" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B104" s="89"/>
-      <c r="C104" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="D104" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="E104" s="24"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="18"/>
-    </row>
-    <row r="105" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B105" s="87" t="s">
+      <c r="D109" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E109" s="23"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+    </row>
+    <row r="110" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B110" s="67"/>
+      <c r="C110" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="C105" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D105" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="E105" s="24"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-    </row>
-    <row r="106" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B106" s="88"/>
-      <c r="C106" s="20" t="s">
+      <c r="D110" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E110" s="23"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+    </row>
+    <row r="111" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B111" s="67"/>
+      <c r="C111" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="D106" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="E106" s="24"/>
-      <c r="F106" s="18"/>
-      <c r="G106" s="18"/>
-      <c r="H106" s="18"/>
-      <c r="I106" s="18"/>
-      <c r="J106" s="18"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="18"/>
-      <c r="M106" s="18"/>
-      <c r="N106" s="18"/>
-    </row>
-    <row r="107" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B107" s="88"/>
-      <c r="C107" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D107" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="E107" s="24"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-    </row>
-    <row r="108" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="B108" s="89"/>
-      <c r="C108" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18"/>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-      <c r="N108" s="18"/>
-    </row>
-    <row r="109" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="B109" s="87" t="s">
-        <v>332</v>
-      </c>
-      <c r="C109" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D109" s="22" t="s">
+      <c r="D111" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
-    </row>
-    <row r="110" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="B110" s="88"/>
-      <c r="C110" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="D110" s="22" t="s">
+      <c r="E111" s="23"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+    </row>
+    <row r="112" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="E110" s="24"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18"/>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-      <c r="N110" s="18"/>
-    </row>
-    <row r="111" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B111" s="88"/>
-      <c r="C111" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="D111" s="22" t="s">
+      <c r="B112" s="68"/>
+      <c r="C112" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D112" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="18"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="18"/>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-      <c r="N111" s="18"/>
-    </row>
-    <row r="112" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="19" t="s">
+      <c r="E112" s="23"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+    </row>
+    <row r="113" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="44"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+    </row>
+    <row r="114" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="73" t="s">
         <v>336</v>
       </c>
-      <c r="B112" s="89"/>
-      <c r="C112" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="18"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="18"/>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-      <c r="N112" s="18"/>
-    </row>
-    <row r="113" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="47"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="18"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="18"/>
-    </row>
-    <row r="114" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="90" t="s">
-        <v>338</v>
-      </c>
-      <c r="B114" s="85"/>
-      <c r="C114" s="85"/>
-      <c r="D114" s="85"/>
-      <c r="E114" s="86"/>
-      <c r="F114" s="18"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="18"/>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-      <c r="N114" s="18"/>
+      <c r="B114" s="71"/>
+      <c r="C114" s="71"/>
+      <c r="D114" s="71"/>
+      <c r="E114" s="72"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
     </row>
     <row r="115" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B115" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D115" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="E115" s="16"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+    </row>
+    <row r="116" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" s="67"/>
+      <c r="C116" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D116" s="21" t="s">
         <v>341</v>
       </c>
-      <c r="E115" s="16"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="18"/>
-    </row>
-    <row r="116" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B116" s="88"/>
-      <c r="C116" s="20" t="s">
+      <c r="E116" s="23"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+    </row>
+    <row r="117" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B117" s="67"/>
+      <c r="C117" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="D116" s="22" t="s">
+      <c r="D117" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="E116" s="24"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-    </row>
-    <row r="117" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B117" s="88"/>
-      <c r="C117" s="50" t="s">
+      <c r="E117" s="23"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+    </row>
+    <row r="118" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B118" s="67"/>
+      <c r="C118" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D117" s="22" t="s">
+      <c r="D118" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="E117" s="24"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-    </row>
-    <row r="118" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B118" s="88"/>
-      <c r="C118" s="20" t="s">
+      <c r="E118" s="23"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+    </row>
+    <row r="119" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B119" s="67"/>
+      <c r="C119" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="D118" s="22" t="s">
+      <c r="D119" s="21" t="s">
         <v>347</v>
       </c>
-      <c r="E118" s="24"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
-      <c r="I118" s="18"/>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-      <c r="N118" s="18"/>
-    </row>
-    <row r="119" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B119" s="88"/>
-      <c r="C119" s="20" t="s">
+      <c r="E119" s="23"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+    </row>
+    <row r="120" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="67"/>
+      <c r="C120" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="D119" s="22" t="s">
+      <c r="D120" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="E119" s="24"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="18"/>
-    </row>
-    <row r="120" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B120" s="88"/>
-      <c r="C120" s="20" t="s">
+      <c r="E120" s="23"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+    </row>
+    <row r="121" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="67"/>
+      <c r="C121" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="D120" s="22" t="s">
+      <c r="D121" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="E120" s="24"/>
-      <c r="F120" s="18"/>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
-      <c r="I120" s="18"/>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-      <c r="N120" s="18"/>
-    </row>
-    <row r="121" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B121" s="88"/>
-      <c r="C121" s="20" t="s">
+      <c r="E121" s="23"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+    </row>
+    <row r="122" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B122" s="67"/>
+      <c r="C122" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="D121" s="22" t="s">
+      <c r="D122" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="E121" s="24"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-    </row>
-    <row r="122" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B122" s="88"/>
-      <c r="C122" s="20" t="s">
+      <c r="E122" s="23"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+      <c r="N122" s="17"/>
+    </row>
+    <row r="123" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="67"/>
+      <c r="C123" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="D122" s="22" t="s">
+      <c r="D123" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="18"/>
-      <c r="G122" s="18"/>
-      <c r="H122" s="18"/>
-      <c r="I122" s="18"/>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-      <c r="N122" s="18"/>
-    </row>
-    <row r="123" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B123" s="88"/>
-      <c r="C123" s="20" t="s">
+      <c r="E123" s="23"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="17"/>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+    </row>
+    <row r="124" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" s="68"/>
+      <c r="C124" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="D123" s="22" t="s">
+      <c r="D124" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="E123" s="24"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-    </row>
-    <row r="124" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B124" s="89"/>
-      <c r="C124" s="20" t="s">
+      <c r="E124" s="23"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="17"/>
+      <c r="L124" s="17"/>
+      <c r="M124" s="17"/>
+      <c r="N124" s="17"/>
+    </row>
+    <row r="125" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B125" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="D124" s="22" t="s">
+      <c r="C125" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="E124" s="24"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18"/>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
-      <c r="N124" s="18"/>
-    </row>
-    <row r="125" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="87" t="s">
+      <c r="D125" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="E125" s="23"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="17"/>
+      <c r="L125" s="17"/>
+      <c r="M125" s="17"/>
+      <c r="N125" s="17"/>
+    </row>
+    <row r="126" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="67"/>
+      <c r="C126" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D126" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="E125" s="24"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-    </row>
-    <row r="126" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B126" s="88"/>
-      <c r="C126" s="20" t="s">
+      <c r="E126" s="23"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="17"/>
+      <c r="L126" s="17"/>
+      <c r="M126" s="17"/>
+      <c r="N126" s="17"/>
+    </row>
+    <row r="127" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B127" s="67"/>
+      <c r="C127" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="D126" s="22" t="s">
+      <c r="D127" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="E126" s="24"/>
-      <c r="F126" s="18"/>
-      <c r="G126" s="18"/>
-      <c r="H126" s="18"/>
-      <c r="I126" s="18"/>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
-      <c r="N126" s="18"/>
-    </row>
-    <row r="127" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B127" s="88"/>
-      <c r="C127" s="20" t="s">
+      <c r="E127" s="23"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="17"/>
+      <c r="L127" s="17"/>
+      <c r="M127" s="17"/>
+      <c r="N127" s="17"/>
+    </row>
+    <row r="128" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B128" s="67"/>
+      <c r="C128" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="D127" s="22" t="s">
+      <c r="D128" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="E127" s="24"/>
-      <c r="F127" s="18"/>
-      <c r="G127" s="18"/>
-      <c r="H127" s="18"/>
-      <c r="I127" s="18"/>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
-      <c r="N127" s="18"/>
-    </row>
-    <row r="128" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B128" s="88"/>
-      <c r="C128" s="20" t="s">
+      <c r="E128" s="23"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+    </row>
+    <row r="129" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B129" s="67"/>
+      <c r="C129" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="D128" s="22" t="s">
+      <c r="D129" s="21" t="s">
         <v>368</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="18"/>
-      <c r="I128" s="18"/>
-      <c r="J128" s="18"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="18"/>
-      <c r="M128" s="18"/>
-      <c r="N128" s="18"/>
-    </row>
-    <row r="129" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B129" s="88"/>
-      <c r="C129" s="20" t="s">
+      <c r="E129" s="23"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+    </row>
+    <row r="130" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" s="67"/>
+      <c r="C130" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="D129" s="22" t="s">
+      <c r="D130" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="E129" s="24"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="18"/>
-      <c r="M129" s="18"/>
-      <c r="N129" s="18"/>
-    </row>
-    <row r="130" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B130" s="88"/>
-      <c r="C130" s="20" t="s">
+      <c r="E130" s="23"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+    </row>
+    <row r="131" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B131" s="67"/>
+      <c r="C131" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="D130" s="22" t="s">
+      <c r="D131" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="E130" s="24"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="18"/>
-      <c r="M130" s="18"/>
-      <c r="N130" s="18"/>
-    </row>
-    <row r="131" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B131" s="88"/>
-      <c r="C131" s="20" t="s">
+      <c r="E131" s="23"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+    </row>
+    <row r="132" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B132" s="68"/>
+      <c r="C132" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="D131" s="22" t="s">
+      <c r="D132" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="E131" s="24"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="18"/>
-      <c r="M131" s="18"/>
-      <c r="N131" s="18"/>
-    </row>
-    <row r="132" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B132" s="89"/>
-      <c r="C132" s="20" t="s">
+      <c r="E132" s="23"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="17"/>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+    </row>
+    <row r="133" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B133" s="69" t="s">
         <v>375</v>
       </c>
-      <c r="D132" s="22" t="s">
+      <c r="C133" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="E132" s="24"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="18"/>
-      <c r="M132" s="18"/>
-      <c r="N132" s="18"/>
-    </row>
-    <row r="133" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B133" s="87" t="s">
+      <c r="D133" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="E133" s="23"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="17"/>
+      <c r="L133" s="17"/>
+      <c r="M133" s="17"/>
+      <c r="N133" s="17"/>
+    </row>
+    <row r="134" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B134" s="67"/>
+      <c r="C134" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="D133" s="22" t="s">
+      <c r="D134" s="21" t="s">
         <v>379</v>
       </c>
-      <c r="E133" s="24"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="18"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="18"/>
-      <c r="M133" s="18"/>
-      <c r="N133" s="18"/>
-    </row>
-    <row r="134" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B134" s="88"/>
-      <c r="C134" s="20" t="s">
+      <c r="E134" s="23"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+    </row>
+    <row r="135" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B135" s="67"/>
+      <c r="C135" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="D134" s="22" t="s">
+      <c r="D135" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="E134" s="24"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="18"/>
-    </row>
-    <row r="135" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B135" s="88"/>
-      <c r="C135" s="20" t="s">
+      <c r="E135" s="23"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="17"/>
+      <c r="L135" s="17"/>
+      <c r="M135" s="17"/>
+      <c r="N135" s="17"/>
+    </row>
+    <row r="136" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" s="67"/>
+      <c r="C136" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="D135" s="22" t="s">
+      <c r="D136" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="E135" s="24"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="18"/>
-      <c r="N135" s="18"/>
-    </row>
-    <row r="136" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B136" s="88"/>
-      <c r="C136" s="20" t="s">
+      <c r="E136" s="23"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+    </row>
+    <row r="137" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B137" s="67"/>
+      <c r="C137" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="D136" s="22" t="s">
+      <c r="D137" s="21" t="s">
         <v>385</v>
       </c>
-      <c r="E136" s="24"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="18"/>
-      <c r="M136" s="18"/>
-      <c r="N136" s="18"/>
-    </row>
-    <row r="137" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B137" s="88"/>
-      <c r="C137" s="20" t="s">
+      <c r="E137" s="23"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+    </row>
+    <row r="138" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B138" s="67"/>
+      <c r="C138" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="D137" s="22" t="s">
+      <c r="D138" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="E137" s="24"/>
-      <c r="F137" s="18"/>
-      <c r="G137" s="18"/>
-      <c r="H137" s="18"/>
-      <c r="I137" s="18"/>
-      <c r="J137" s="18"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="18"/>
-      <c r="M137" s="18"/>
-      <c r="N137" s="18"/>
-    </row>
-    <row r="138" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B138" s="88"/>
-      <c r="C138" s="20" t="s">
+      <c r="E138" s="23"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+    </row>
+    <row r="139" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B139" s="67"/>
+      <c r="C139" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="D138" s="22" t="s">
+      <c r="D139" s="21" t="s">
         <v>389</v>
       </c>
-      <c r="E138" s="24"/>
-      <c r="F138" s="18"/>
-      <c r="G138" s="18"/>
-      <c r="H138" s="18"/>
-      <c r="I138" s="18"/>
-      <c r="J138" s="18"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="18"/>
-      <c r="M138" s="18"/>
-      <c r="N138" s="18"/>
-    </row>
-    <row r="139" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B139" s="88"/>
-      <c r="C139" s="20" t="s">
+      <c r="E139" s="23"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+      <c r="N139" s="17"/>
+    </row>
+    <row r="140" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B140" s="67"/>
+      <c r="C140" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="D139" s="22" t="s">
+      <c r="D140" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="E139" s="24"/>
-      <c r="F139" s="18"/>
-      <c r="G139" s="18"/>
-      <c r="H139" s="18"/>
-      <c r="I139" s="18"/>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-      <c r="N139" s="18"/>
-    </row>
-    <row r="140" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="B140" s="88"/>
-      <c r="C140" s="20" t="s">
+      <c r="E140" s="23"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+    </row>
+    <row r="141" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" s="67"/>
+      <c r="C141" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D141" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="E140" s="24"/>
-      <c r="F140" s="18"/>
-      <c r="G140" s="18"/>
-      <c r="H140" s="18"/>
-      <c r="I140" s="18"/>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="18"/>
-      <c r="N140" s="18"/>
-    </row>
-    <row r="141" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B141" s="88"/>
-      <c r="C141" s="20" t="s">
+      <c r="E141" s="23"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+    </row>
+    <row r="142" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B142" s="67"/>
+      <c r="C142" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="D141" s="22" t="s">
+      <c r="D142" s="21" t="s">
         <v>395</v>
       </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="18"/>
-      <c r="I141" s="18"/>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-      <c r="N141" s="18"/>
-    </row>
-    <row r="142" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B142" s="88"/>
-      <c r="C142" s="20" t="s">
+      <c r="E142" s="23"/>
+      <c r="F142" s="17"/>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+      <c r="N142" s="17"/>
+    </row>
+    <row r="143" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B143" s="67"/>
+      <c r="C143" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D142" s="22" t="s">
+      <c r="D143" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="E142" s="24"/>
-      <c r="F142" s="18"/>
-      <c r="G142" s="18"/>
-      <c r="H142" s="18"/>
-      <c r="I142" s="18"/>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="18"/>
-      <c r="N142" s="18"/>
-    </row>
-    <row r="143" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="B143" s="88"/>
-      <c r="C143" s="20" t="s">
+      <c r="E143" s="23"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+    </row>
+    <row r="144" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B144" s="63"/>
+      <c r="C144" s="49" t="s">
         <v>398</v>
       </c>
-      <c r="D143" s="22" t="s">
+      <c r="D144" s="50" t="s">
         <v>399</v>
       </c>
-      <c r="E143" s="24"/>
-      <c r="F143" s="18"/>
-      <c r="G143" s="18"/>
-      <c r="H143" s="18"/>
-      <c r="I143" s="18"/>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-      <c r="N143" s="18"/>
-    </row>
-    <row r="144" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="B144" s="93"/>
-      <c r="C144" s="52" t="s">
-        <v>400</v>
-      </c>
-      <c r="D144" s="53" t="s">
-        <v>401</v>
-      </c>
-      <c r="E144" s="54"/>
-      <c r="F144" s="18"/>
-      <c r="G144" s="18"/>
-      <c r="H144" s="18"/>
-      <c r="I144" s="18"/>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-      <c r="N144" s="18"/>
+      <c r="E144" s="51"/>
+      <c r="F144" s="17"/>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+      <c r="N144" s="17"/>
     </row>
     <row r="145" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="146" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8450,11 +8631,13 @@
     <row r="1021" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B19"/>
+    <mergeCell ref="B20:B34"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="B115:B124"/>
     <mergeCell ref="B125:B132"/>
     <mergeCell ref="B133:B144"/>
@@ -8467,28 +8650,29 @@
     <mergeCell ref="A59:E59"/>
     <mergeCell ref="B109:B112"/>
     <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B19"/>
-    <mergeCell ref="B20:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B52"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="4" manualBreakCount="4">
-    <brk id="34" max="16383" man="1"/>
-    <brk id="58" max="16383" man="1"/>
-    <brk id="83" max="16383" man="1"/>
+  <rowBreaks count="7" manualBreakCount="7">
+    <brk id="19" max="16383" man="1"/>
+    <brk id="40" max="16383" man="1"/>
+    <brk id="58" max="4" man="1"/>
+    <brk id="83" max="4" man="1"/>
+    <brk id="99" max="4" man="1"/>
     <brk id="113" max="16383" man="1"/>
+    <brk id="132" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
